--- a/Original/CN/Game/Obj.xlsx
+++ b/Original/CN/Game/Obj.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="518">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.120</t>
+    <t xml:space="preserve">EA 23.129</t>
   </si>
   <si>
     <t xml:space="preserve">momiji</t>
@@ -1094,6 +1094,63 @@
     <t xml:space="preserve">屋根9</t>
   </si>
   <si>
+    <t xml:space="preserve">126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roof10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">屋根10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">green grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">緑の草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roof11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">屋根11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roof12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">屋根12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roof13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">屋根13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">屋根14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">屋根15</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alpha 11.1</t>
   </si>
   <si>
@@ -1184,6 +1241,18 @@
     <t xml:space="preserve">EA 23.117</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.126</t>
+  </si>
+  <si>
     <t xml:space="preserve">null</t>
   </si>
   <si>
@@ -1485,6 +1554,21 @@
   </si>
   <si>
     <t xml:space="preserve">屋顶9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">屋顶10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">绿色的草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">屋顶11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">屋顶12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">屋顶13</t>
   </si>
 </sst>
 </file>
@@ -1596,10 +1680,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C3" t="s">
-        <v>389</v>
+        <v>412</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -1615,7 +1699,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -1634,10 +1718,10 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C5" t="s">
-        <v>390</v>
+        <v>413</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -1653,10 +1737,10 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C6" t="s">
-        <v>391</v>
+        <v>414</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
@@ -1672,10 +1756,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C7" t="s">
-        <v>392</v>
+        <v>415</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -1691,10 +1775,10 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C8" t="s">
-        <v>393</v>
+        <v>416</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
@@ -1710,10 +1794,10 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C9" t="s">
-        <v>394</v>
+        <v>417</v>
       </c>
       <c r="D9" t="s">
         <v>28</v>
@@ -1729,10 +1813,10 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C10" t="s">
-        <v>393</v>
+        <v>416</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -1748,10 +1832,10 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C11" t="s">
-        <v>395</v>
+        <v>418</v>
       </c>
       <c r="D11" t="s">
         <v>32</v>
@@ -1767,10 +1851,10 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C12" t="s">
-        <v>396</v>
+        <v>419</v>
       </c>
       <c r="D12" t="s">
         <v>35</v>
@@ -1786,10 +1870,10 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C13" t="s">
-        <v>397</v>
+        <v>420</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
@@ -1805,7 +1889,7 @@
         <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C14" t="s">
         <v>42</v>
@@ -1824,10 +1908,10 @@
         <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C15" t="s">
-        <v>398</v>
+        <v>421</v>
       </c>
       <c r="D15" t="s">
         <v>44</v>
@@ -1843,10 +1927,10 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C16" t="s">
-        <v>399</v>
+        <v>422</v>
       </c>
       <c r="D16" t="s">
         <v>47</v>
@@ -1862,10 +1946,10 @@
         <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="C17" t="s">
-        <v>400</v>
+        <v>423</v>
       </c>
       <c r="D17" t="s">
         <v>50</v>
@@ -1881,10 +1965,10 @@
         <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C18" t="s">
-        <v>401</v>
+        <v>424</v>
       </c>
       <c r="D18" t="s">
         <v>44</v>
@@ -1900,10 +1984,10 @@
         <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C19" t="s">
-        <v>402</v>
+        <v>425</v>
       </c>
       <c r="D19" t="s">
         <v>55</v>
@@ -1919,10 +2003,10 @@
         <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C20" t="s">
-        <v>403</v>
+        <v>426</v>
       </c>
       <c r="D20" t="s">
         <v>58</v>
@@ -1938,10 +2022,10 @@
         <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C21" t="s">
-        <v>404</v>
+        <v>427</v>
       </c>
       <c r="D21" t="s">
         <v>61</v>
@@ -1957,10 +2041,10 @@
         <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C22" t="s">
-        <v>405</v>
+        <v>428</v>
       </c>
       <c r="D22" t="s">
         <v>64</v>
@@ -1976,10 +2060,10 @@
         <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="C23" t="s">
-        <v>406</v>
+        <v>429</v>
       </c>
       <c r="D23" t="s">
         <v>67</v>
@@ -1995,10 +2079,10 @@
         <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C24" t="s">
-        <v>407</v>
+        <v>430</v>
       </c>
       <c r="D24" t="s">
         <v>70</v>
@@ -2014,10 +2098,10 @@
         <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C25" t="s">
-        <v>408</v>
+        <v>431</v>
       </c>
       <c r="D25" t="s">
         <v>73</v>
@@ -2033,10 +2117,10 @@
         <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C26" t="s">
-        <v>409</v>
+        <v>432</v>
       </c>
       <c r="D26" t="s">
         <v>76</v>
@@ -2052,10 +2136,10 @@
         <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="C27" t="s">
-        <v>410</v>
+        <v>433</v>
       </c>
       <c r="D27" t="s">
         <v>79</v>
@@ -2071,10 +2155,10 @@
         <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C28" t="s">
-        <v>411</v>
+        <v>434</v>
       </c>
       <c r="D28" t="s">
         <v>82</v>
@@ -2090,10 +2174,10 @@
         <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C29" t="s">
-        <v>412</v>
+        <v>435</v>
       </c>
       <c r="D29" t="s">
         <v>85</v>
@@ -2109,10 +2193,10 @@
         <v>87</v>
       </c>
       <c r="B30" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C30" t="s">
-        <v>413</v>
+        <v>436</v>
       </c>
       <c r="D30" t="s">
         <v>88</v>
@@ -2128,10 +2212,10 @@
         <v>90</v>
       </c>
       <c r="B31" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C31" t="s">
-        <v>414</v>
+        <v>437</v>
       </c>
       <c r="D31" t="s">
         <v>91</v>
@@ -2147,10 +2231,10 @@
         <v>93</v>
       </c>
       <c r="B32" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C32" t="s">
-        <v>415</v>
+        <v>438</v>
       </c>
       <c r="D32" t="s">
         <v>94</v>
@@ -2166,10 +2250,10 @@
         <v>96</v>
       </c>
       <c r="B33" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C33" t="s">
-        <v>416</v>
+        <v>439</v>
       </c>
       <c r="D33" t="s">
         <v>97</v>
@@ -2185,10 +2269,10 @@
         <v>99</v>
       </c>
       <c r="B34" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C34" t="s">
-        <v>417</v>
+        <v>440</v>
       </c>
       <c r="D34" t="s">
         <v>100</v>
@@ -2204,10 +2288,10 @@
         <v>102</v>
       </c>
       <c r="B35" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C35" t="s">
-        <v>418</v>
+        <v>441</v>
       </c>
       <c r="D35" t="s">
         <v>103</v>
@@ -2223,10 +2307,10 @@
         <v>105</v>
       </c>
       <c r="B36" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C36" t="s">
-        <v>419</v>
+        <v>442</v>
       </c>
       <c r="D36" t="s">
         <v>106</v>
@@ -2242,7 +2326,7 @@
         <v>108</v>
       </c>
       <c r="B37" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="C37" t="s">
         <v>110</v>
@@ -2261,7 +2345,7 @@
         <v>111</v>
       </c>
       <c r="B38" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C38" t="s">
         <v>113</v>
@@ -2280,10 +2364,10 @@
         <v>114</v>
       </c>
       <c r="B39" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C39" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="D39" t="s">
         <v>115</v>
@@ -2299,10 +2383,10 @@
         <v>117</v>
       </c>
       <c r="B40" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C40" t="s">
-        <v>421</v>
+        <v>444</v>
       </c>
       <c r="D40" t="s">
         <v>118</v>
@@ -2318,10 +2402,10 @@
         <v>120</v>
       </c>
       <c r="B41" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C41" t="s">
-        <v>422</v>
+        <v>445</v>
       </c>
       <c r="D41" t="s">
         <v>121</v>
@@ -2337,10 +2421,10 @@
         <v>123</v>
       </c>
       <c r="B42" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C42" t="s">
-        <v>423</v>
+        <v>446</v>
       </c>
       <c r="D42" t="s">
         <v>124</v>
@@ -2356,10 +2440,10 @@
         <v>126</v>
       </c>
       <c r="B43" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="C43" t="s">
-        <v>424</v>
+        <v>447</v>
       </c>
       <c r="D43" t="s">
         <v>127</v>
@@ -2375,10 +2459,10 @@
         <v>129</v>
       </c>
       <c r="B44" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="C44" t="s">
-        <v>425</v>
+        <v>448</v>
       </c>
       <c r="D44" t="s">
         <v>130</v>
@@ -2394,10 +2478,10 @@
         <v>132</v>
       </c>
       <c r="B45" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="C45" t="s">
-        <v>426</v>
+        <v>449</v>
       </c>
       <c r="D45" t="s">
         <v>133</v>
@@ -2413,7 +2497,7 @@
         <v>135</v>
       </c>
       <c r="B46" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C46" t="s">
         <v>136</v>
@@ -2432,10 +2516,10 @@
         <v>137</v>
       </c>
       <c r="B47" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C47" t="s">
-        <v>427</v>
+        <v>450</v>
       </c>
       <c r="D47" t="s">
         <v>138</v>
@@ -2451,10 +2535,10 @@
         <v>140</v>
       </c>
       <c r="B48" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C48" t="s">
-        <v>428</v>
+        <v>451</v>
       </c>
       <c r="D48" t="s">
         <v>141</v>
@@ -2470,7 +2554,7 @@
         <v>143</v>
       </c>
       <c r="B49" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C49" t="s">
         <v>110</v>
@@ -2489,10 +2573,10 @@
         <v>144</v>
       </c>
       <c r="B50" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C50" t="s">
-        <v>429</v>
+        <v>452</v>
       </c>
       <c r="D50" t="s">
         <v>44</v>
@@ -2508,10 +2592,10 @@
         <v>146</v>
       </c>
       <c r="B51" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C51" t="s">
-        <v>430</v>
+        <v>453</v>
       </c>
       <c r="D51" t="s">
         <v>147</v>
@@ -2527,10 +2611,10 @@
         <v>149</v>
       </c>
       <c r="B52" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="C52" t="s">
-        <v>431</v>
+        <v>454</v>
       </c>
       <c r="D52" t="s">
         <v>150</v>
@@ -2546,10 +2630,10 @@
         <v>152</v>
       </c>
       <c r="B53" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="C53" t="s">
-        <v>432</v>
+        <v>455</v>
       </c>
       <c r="D53" t="s">
         <v>153</v>
@@ -2565,10 +2649,10 @@
         <v>155</v>
       </c>
       <c r="B54" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C54" t="s">
-        <v>433</v>
+        <v>456</v>
       </c>
       <c r="D54" t="s">
         <v>156</v>
@@ -2584,7 +2668,7 @@
         <v>158</v>
       </c>
       <c r="B55" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C55" t="s">
         <v>160</v>
@@ -2603,10 +2687,10 @@
         <v>161</v>
       </c>
       <c r="B56" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C56" t="s">
-        <v>434</v>
+        <v>457</v>
       </c>
       <c r="D56" t="s">
         <v>162</v>
@@ -2622,10 +2706,10 @@
         <v>164</v>
       </c>
       <c r="B57" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C57" t="s">
-        <v>435</v>
+        <v>458</v>
       </c>
       <c r="D57" t="s">
         <v>165</v>
@@ -2641,10 +2725,10 @@
         <v>167</v>
       </c>
       <c r="B58" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C58" t="s">
-        <v>436</v>
+        <v>459</v>
       </c>
       <c r="D58" t="s">
         <v>168</v>
@@ -2660,10 +2744,10 @@
         <v>170</v>
       </c>
       <c r="B59" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C59" t="s">
-        <v>437</v>
+        <v>460</v>
       </c>
       <c r="D59" t="s">
         <v>171</v>
@@ -2679,10 +2763,10 @@
         <v>173</v>
       </c>
       <c r="B60" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C60" t="s">
-        <v>438</v>
+        <v>461</v>
       </c>
       <c r="D60" t="s">
         <v>174</v>
@@ -2698,10 +2782,10 @@
         <v>176</v>
       </c>
       <c r="B61" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C61" t="s">
-        <v>439</v>
+        <v>462</v>
       </c>
       <c r="D61" t="s">
         <v>177</v>
@@ -2717,10 +2801,10 @@
         <v>179</v>
       </c>
       <c r="B62" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C62" t="s">
-        <v>440</v>
+        <v>463</v>
       </c>
       <c r="D62" t="s">
         <v>180</v>
@@ -2736,10 +2820,10 @@
         <v>182</v>
       </c>
       <c r="B63" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="C63" t="s">
-        <v>441</v>
+        <v>464</v>
       </c>
       <c r="D63" t="s">
         <v>183</v>
@@ -2755,10 +2839,10 @@
         <v>185</v>
       </c>
       <c r="B64" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C64" t="s">
-        <v>442</v>
+        <v>465</v>
       </c>
       <c r="D64" t="s">
         <v>186</v>
@@ -2774,10 +2858,10 @@
         <v>188</v>
       </c>
       <c r="B65" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C65" t="s">
-        <v>443</v>
+        <v>466</v>
       </c>
       <c r="D65" t="s">
         <v>189</v>
@@ -2793,10 +2877,10 @@
         <v>191</v>
       </c>
       <c r="B66" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C66" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="D66" t="s">
         <v>192</v>
@@ -2812,10 +2896,10 @@
         <v>194</v>
       </c>
       <c r="B67" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C67" t="s">
-        <v>445</v>
+        <v>468</v>
       </c>
       <c r="D67" t="s">
         <v>195</v>
@@ -2831,10 +2915,10 @@
         <v>197</v>
       </c>
       <c r="B68" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C68" t="s">
-        <v>446</v>
+        <v>469</v>
       </c>
       <c r="D68" t="s">
         <v>198</v>
@@ -2850,10 +2934,10 @@
         <v>200</v>
       </c>
       <c r="B69" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C69" t="s">
-        <v>447</v>
+        <v>470</v>
       </c>
       <c r="D69" t="s">
         <v>201</v>
@@ -2869,10 +2953,10 @@
         <v>203</v>
       </c>
       <c r="B70" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C70" t="s">
-        <v>448</v>
+        <v>471</v>
       </c>
       <c r="D70" t="s">
         <v>204</v>
@@ -2888,10 +2972,10 @@
         <v>206</v>
       </c>
       <c r="B71" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="C71" t="s">
-        <v>449</v>
+        <v>472</v>
       </c>
       <c r="D71" t="s">
         <v>207</v>
@@ -2907,10 +2991,10 @@
         <v>209</v>
       </c>
       <c r="B72" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C72" t="s">
-        <v>450</v>
+        <v>473</v>
       </c>
       <c r="D72" t="s">
         <v>210</v>
@@ -2926,10 +3010,10 @@
         <v>212</v>
       </c>
       <c r="B73" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C73" t="s">
-        <v>451</v>
+        <v>474</v>
       </c>
       <c r="D73" t="s">
         <v>213</v>
@@ -2945,10 +3029,10 @@
         <v>215</v>
       </c>
       <c r="B74" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C74" t="s">
-        <v>452</v>
+        <v>475</v>
       </c>
       <c r="D74" t="s">
         <v>216</v>
@@ -2964,10 +3048,10 @@
         <v>218</v>
       </c>
       <c r="B75" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C75" t="s">
-        <v>453</v>
+        <v>476</v>
       </c>
       <c r="D75" t="s">
         <v>219</v>
@@ -2983,7 +3067,7 @@
         <v>221</v>
       </c>
       <c r="B76" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C76" t="s">
         <v>223</v>
@@ -3002,10 +3086,10 @@
         <v>224</v>
       </c>
       <c r="B77" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C77" t="s">
-        <v>454</v>
+        <v>477</v>
       </c>
       <c r="D77" t="s">
         <v>225</v>
@@ -3021,7 +3105,7 @@
         <v>227</v>
       </c>
       <c r="B78" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C78" t="s">
         <v>229</v>
@@ -3040,10 +3124,10 @@
         <v>230</v>
       </c>
       <c r="B79" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C79" t="s">
-        <v>455</v>
+        <v>478</v>
       </c>
       <c r="D79" t="s">
         <v>231</v>
@@ -3059,10 +3143,10 @@
         <v>233</v>
       </c>
       <c r="B80" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C80" t="s">
-        <v>456</v>
+        <v>479</v>
       </c>
       <c r="D80" t="s">
         <v>234</v>
@@ -3078,7 +3162,7 @@
         <v>236</v>
       </c>
       <c r="B81" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="C81" t="s">
         <v>238</v>
@@ -3097,10 +3181,10 @@
         <v>239</v>
       </c>
       <c r="B82" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C82" t="s">
-        <v>457</v>
+        <v>480</v>
       </c>
       <c r="D82" t="s">
         <v>240</v>
@@ -3116,10 +3200,10 @@
         <v>242</v>
       </c>
       <c r="B83" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C83" t="s">
-        <v>458</v>
+        <v>481</v>
       </c>
       <c r="D83" t="s">
         <v>243</v>
@@ -3135,10 +3219,10 @@
         <v>244</v>
       </c>
       <c r="B84" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="C84" t="s">
-        <v>459</v>
+        <v>482</v>
       </c>
       <c r="D84" t="s">
         <v>245</v>
@@ -3154,7 +3238,7 @@
         <v>247</v>
       </c>
       <c r="B85" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="C85" t="s">
         <v>249</v>
@@ -3173,7 +3257,7 @@
         <v>250</v>
       </c>
       <c r="B86" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C86" t="s">
         <v>110</v>
@@ -3192,10 +3276,10 @@
         <v>251</v>
       </c>
       <c r="B87" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="C87" t="s">
-        <v>460</v>
+        <v>483</v>
       </c>
       <c r="D87" t="s">
         <v>252</v>
@@ -3211,7 +3295,7 @@
         <v>254</v>
       </c>
       <c r="B88" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="C88" t="s">
         <v>110</v>
@@ -3230,7 +3314,7 @@
         <v>255</v>
       </c>
       <c r="B89" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="C89" t="s">
         <v>110</v>
@@ -3249,7 +3333,7 @@
         <v>256</v>
       </c>
       <c r="B90" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="C90" t="s">
         <v>110</v>
@@ -3268,10 +3352,10 @@
         <v>257</v>
       </c>
       <c r="B91" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C91" t="s">
-        <v>461</v>
+        <v>484</v>
       </c>
       <c r="D91" t="s">
         <v>258</v>
@@ -3287,10 +3371,10 @@
         <v>260</v>
       </c>
       <c r="B92" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="C92" t="s">
-        <v>462</v>
+        <v>485</v>
       </c>
       <c r="D92" t="s">
         <v>261</v>
@@ -3306,10 +3390,10 @@
         <v>263</v>
       </c>
       <c r="B93" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="C93" t="s">
-        <v>463</v>
+        <v>486</v>
       </c>
       <c r="D93" t="s">
         <v>264</v>
@@ -3325,10 +3409,10 @@
         <v>266</v>
       </c>
       <c r="B94" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="C94" t="s">
-        <v>464</v>
+        <v>487</v>
       </c>
       <c r="D94" t="s">
         <v>267</v>
@@ -3344,10 +3428,10 @@
         <v>269</v>
       </c>
       <c r="B95" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="C95" t="s">
-        <v>465</v>
+        <v>488</v>
       </c>
       <c r="D95" t="s">
         <v>270</v>
@@ -3363,10 +3447,10 @@
         <v>272</v>
       </c>
       <c r="B96" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="C96" t="s">
-        <v>466</v>
+        <v>489</v>
       </c>
       <c r="D96" t="s">
         <v>273</v>
@@ -3382,7 +3466,7 @@
         <v>275</v>
       </c>
       <c r="B97" t="s">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="C97" t="s">
         <v>277</v>
@@ -3401,10 +3485,10 @@
         <v>278</v>
       </c>
       <c r="B98" t="s">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="C98" t="s">
-        <v>467</v>
+        <v>490</v>
       </c>
       <c r="D98" t="s">
         <v>279</v>
@@ -3420,10 +3504,10 @@
         <v>281</v>
       </c>
       <c r="B99" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="C99" t="s">
-        <v>467</v>
+        <v>490</v>
       </c>
       <c r="D99" t="s">
         <v>279</v>
@@ -3439,10 +3523,10 @@
         <v>282</v>
       </c>
       <c r="B100" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="C100" t="s">
-        <v>417</v>
+        <v>440</v>
       </c>
       <c r="D100" t="s">
         <v>100</v>
@@ -3458,10 +3542,10 @@
         <v>283</v>
       </c>
       <c r="B101" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="C101" t="s">
-        <v>417</v>
+        <v>440</v>
       </c>
       <c r="D101" t="s">
         <v>100</v>
@@ -3477,10 +3561,10 @@
         <v>284</v>
       </c>
       <c r="B102" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="C102" t="s">
-        <v>468</v>
+        <v>491</v>
       </c>
       <c r="D102" t="s">
         <v>285</v>
@@ -3496,10 +3580,10 @@
         <v>287</v>
       </c>
       <c r="B103" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="C103" t="s">
-        <v>469</v>
+        <v>492</v>
       </c>
       <c r="D103" t="s">
         <v>288</v>
@@ -3515,10 +3599,10 @@
         <v>290</v>
       </c>
       <c r="B104" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="C104" t="s">
-        <v>410</v>
+        <v>433</v>
       </c>
       <c r="D104" t="s">
         <v>79</v>
@@ -3534,10 +3618,10 @@
         <v>291</v>
       </c>
       <c r="B105" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="C105" t="s">
-        <v>470</v>
+        <v>493</v>
       </c>
       <c r="D105" t="s">
         <v>292</v>
@@ -3553,7 +3637,7 @@
         <v>294</v>
       </c>
       <c r="B106" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="C106" t="s">
         <v>296</v>
@@ -3572,10 +3656,10 @@
         <v>297</v>
       </c>
       <c r="B107" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="C107" t="s">
-        <v>471</v>
+        <v>494</v>
       </c>
       <c r="D107" t="s">
         <v>298</v>
@@ -3591,7 +3675,7 @@
         <v>300</v>
       </c>
       <c r="B108" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="C108" t="s">
         <v>302</v>
@@ -3610,10 +3694,10 @@
         <v>303</v>
       </c>
       <c r="B109" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="C109" t="s">
-        <v>465</v>
+        <v>488</v>
       </c>
       <c r="D109" t="s">
         <v>79</v>
@@ -3629,10 +3713,10 @@
         <v>304</v>
       </c>
       <c r="B110" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="C110" t="s">
-        <v>472</v>
+        <v>495</v>
       </c>
       <c r="D110" t="s">
         <v>305</v>
@@ -3648,10 +3732,10 @@
         <v>307</v>
       </c>
       <c r="B111" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="C111" t="s">
-        <v>473</v>
+        <v>496</v>
       </c>
       <c r="D111" t="s">
         <v>308</v>
@@ -3667,10 +3751,10 @@
         <v>310</v>
       </c>
       <c r="B112" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="C112" t="s">
-        <v>474</v>
+        <v>497</v>
       </c>
       <c r="D112" t="s">
         <v>311</v>
@@ -3686,10 +3770,10 @@
         <v>313</v>
       </c>
       <c r="B113" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="C113" t="s">
-        <v>475</v>
+        <v>498</v>
       </c>
       <c r="D113" t="s">
         <v>314</v>
@@ -3705,10 +3789,10 @@
         <v>316</v>
       </c>
       <c r="B114" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="C114" t="s">
-        <v>476</v>
+        <v>499</v>
       </c>
       <c r="D114" t="s">
         <v>317</v>
@@ -3724,10 +3808,10 @@
         <v>319</v>
       </c>
       <c r="B115" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="C115" t="s">
-        <v>477</v>
+        <v>500</v>
       </c>
       <c r="D115" t="s">
         <v>320</v>
@@ -3743,10 +3827,10 @@
         <v>322</v>
       </c>
       <c r="B116" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="C116" t="s">
-        <v>478</v>
+        <v>501</v>
       </c>
       <c r="D116" t="s">
         <v>323</v>
@@ -3762,10 +3846,10 @@
         <v>325</v>
       </c>
       <c r="B117" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="C117" t="s">
-        <v>479</v>
+        <v>502</v>
       </c>
       <c r="D117" t="s">
         <v>326</v>
@@ -3781,10 +3865,10 @@
         <v>328</v>
       </c>
       <c r="B118" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="C118" t="s">
-        <v>480</v>
+        <v>503</v>
       </c>
       <c r="D118" t="s">
         <v>329</v>
@@ -3800,10 +3884,10 @@
         <v>331</v>
       </c>
       <c r="B119" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="C119" t="s">
-        <v>481</v>
+        <v>504</v>
       </c>
       <c r="D119" t="s">
         <v>332</v>
@@ -3819,10 +3903,10 @@
         <v>334</v>
       </c>
       <c r="B120" t="s">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="C120" t="s">
-        <v>482</v>
+        <v>505</v>
       </c>
       <c r="D120" t="s">
         <v>335</v>
@@ -3838,10 +3922,10 @@
         <v>337</v>
       </c>
       <c r="B121" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="C121" t="s">
-        <v>483</v>
+        <v>506</v>
       </c>
       <c r="D121" t="s">
         <v>338</v>
@@ -3857,10 +3941,10 @@
         <v>340</v>
       </c>
       <c r="B122" t="s">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="C122" t="s">
-        <v>484</v>
+        <v>507</v>
       </c>
       <c r="D122" t="s">
         <v>341</v>
@@ -3876,10 +3960,10 @@
         <v>343</v>
       </c>
       <c r="B123" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
       <c r="C123" t="s">
-        <v>392</v>
+        <v>415</v>
       </c>
       <c r="D123" t="s">
         <v>22</v>
@@ -3895,10 +3979,10 @@
         <v>344</v>
       </c>
       <c r="B124" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
       <c r="C124" t="s">
-        <v>485</v>
+        <v>508</v>
       </c>
       <c r="D124" t="s">
         <v>345</v>
@@ -3914,10 +3998,10 @@
         <v>347</v>
       </c>
       <c r="B125" t="s">
-        <v>386</v>
+        <v>405</v>
       </c>
       <c r="C125" t="s">
-        <v>486</v>
+        <v>509</v>
       </c>
       <c r="D125" t="s">
         <v>348</v>
@@ -3933,10 +4017,10 @@
         <v>350</v>
       </c>
       <c r="B126" t="s">
-        <v>386</v>
+        <v>405</v>
       </c>
       <c r="C126" t="s">
-        <v>487</v>
+        <v>510</v>
       </c>
       <c r="D126" t="s">
         <v>351</v>
@@ -3952,10 +4036,10 @@
         <v>353</v>
       </c>
       <c r="B127" t="s">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="C127" t="s">
-        <v>488</v>
+        <v>511</v>
       </c>
       <c r="D127" t="s">
         <v>354</v>
@@ -3971,10 +4055,10 @@
         <v>356</v>
       </c>
       <c r="B128" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="C128" t="s">
-        <v>489</v>
+        <v>512</v>
       </c>
       <c r="D128" t="s">
         <v>357</v>
@@ -3984,6 +4068,133 @@
       </c>
       <c r="G128"/>
       <c r="H128"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>359</v>
+      </c>
+      <c r="B129" t="s">
+        <v>408</v>
+      </c>
+      <c r="C129" t="s">
+        <v>513</v>
+      </c>
+      <c r="D129" t="s">
+        <v>360</v>
+      </c>
+      <c r="E129" t="s">
+        <v>361</v>
+      </c>
+      <c r="G129"/>
+      <c r="H129"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>362</v>
+      </c>
+      <c r="B130" t="s">
+        <v>408</v>
+      </c>
+      <c r="C130" t="s">
+        <v>514</v>
+      </c>
+      <c r="D130" t="s">
+        <v>363</v>
+      </c>
+      <c r="E130" t="s">
+        <v>364</v>
+      </c>
+      <c r="G130"/>
+      <c r="H130"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>365</v>
+      </c>
+      <c r="B131" t="s">
+        <v>409</v>
+      </c>
+      <c r="C131" t="s">
+        <v>515</v>
+      </c>
+      <c r="D131" t="s">
+        <v>366</v>
+      </c>
+      <c r="E131" t="s">
+        <v>367</v>
+      </c>
+      <c r="G131"/>
+      <c r="H131"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>368</v>
+      </c>
+      <c r="B132" t="s">
+        <v>410</v>
+      </c>
+      <c r="C132" t="s">
+        <v>516</v>
+      </c>
+      <c r="D132" t="s">
+        <v>369</v>
+      </c>
+      <c r="E132" t="s">
+        <v>370</v>
+      </c>
+      <c r="G132"/>
+      <c r="H132"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>371</v>
+      </c>
+      <c r="B133" t="s">
+        <v>411</v>
+      </c>
+      <c r="C133" t="s">
+        <v>517</v>
+      </c>
+      <c r="D133" t="s">
+        <v>372</v>
+      </c>
+      <c r="E133" t="s">
+        <v>373</v>
+      </c>
+      <c r="G133"/>
+      <c r="H133"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>374</v>
+      </c>
+      <c r="B134" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" t="s">
+        <v>372</v>
+      </c>
+      <c r="E134" t="s">
+        <v>375</v>
+      </c>
+      <c r="G134"/>
+      <c r="H134"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>376</v>
+      </c>
+      <c r="B135" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" t="s">
+        <v>372</v>
+      </c>
+      <c r="E135" t="s">
+        <v>377</v>
+      </c>
+      <c r="G135"/>
+      <c r="H135"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H2"/>

--- a/Original/CN/Game/Obj.xlsx
+++ b/Original/CN/Game/Obj.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="549">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,1213 +44,1285 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">momiji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ぬる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">花</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blue flower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">青い花</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yellow flower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黄色い花</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">white flower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白い花</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雑草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mushroom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">きのこ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rafflesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ラフレシア</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pebble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">石ころ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crystal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">クリスタル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">石</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mushroom tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">紫のマッシュルームツリー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">christmas tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">クリスマスツリー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">クリム</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">緑のマッシュルームツリー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cactus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">サボテン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">palulu tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">パルルの木</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鉱脈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gem ore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">貴鉱脈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water lily</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水蓮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wall support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">木の支柱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">屋根</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">窓</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wall frame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">木枠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">舗装</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roof2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">屋根2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roof3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">屋根3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roof4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">屋根4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roof5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">屋根5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roof6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">屋根6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">track</t>
+  </si>
+  <si>
+    <t xml:space="preserve">線路</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">裂け目</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stone road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">石の小道</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wreck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">残骸</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wheat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">麦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">radish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大根</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">テスト植物</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cabbage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">キャベツ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">トマト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carrot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">にんじん</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">イーモ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">corn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">とうもろこし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小道</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">narrow road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">細い小道</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chunk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">塊</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">青のマッシュルームツリー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bird's nest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鳥の巣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apple tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">林檎の木</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">berry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ベリー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">big rock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大きな岩</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">骨</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rosewood tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ローズウッドの木</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fir tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">モミの木</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cedar tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">杉の木</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">birch tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">樺の木</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pine tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">パインの木</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oak tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">オークの木</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">burnt tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">燃え尽きた木</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">苔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vine bush</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蔓</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decayed fossil tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">朽ちた化石樹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fossil tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">化石樹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">big fossil tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大きな化石樹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decayed fossil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">朽ちた化石</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bollard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">係船柱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roof7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">屋根7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fish silhouette </t>
+  </si>
+  <si>
+    <t xml:space="preserve">魚影</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mahogany tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">マホガニーの木</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acacia tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アカシアの木</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cracked floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">欠けた床</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切り株</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seaweed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海藻</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">貝殻</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">珊瑚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">willow tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">柳の木</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cherry blossom tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">桜の木</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">葡萄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pile of fallen leaves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">落ち葉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cotton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コットン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亡骸</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">盛り上がった土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">稲</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">white line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白線</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rainbow fruit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">万色フルーツ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">salt rock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">岩塩</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">border</t>
+  </si>
+  <si>
+    <t xml:space="preserve">枠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stalagmite </t>
+  </si>
+  <si>
+    <t xml:space="preserve">石筍</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decayed tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">朽木</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decayed wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">崩れた壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cattail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ガマ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">huge rock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">巨大な岩</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sulfur rock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">硫黄岩</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bamboo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">竹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">api</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アピ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pasture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">牧草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chemicals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">化学物質</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silver grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ススキ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">debris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">デブリ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conveyor belt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ベルトコンベア</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fragments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">破片</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">banana tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">バナナの木</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orange tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蜜柑の木</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pear tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">梨の木</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赤い草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blue grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">青い草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">purple grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">紫の草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feywood tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">フェイウッドの木</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coralwood tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コーラルウッドの木</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">シダ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coffee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コフィ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tobacc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">タバック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roof8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">屋根8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roof9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">屋根9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roof10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">屋根10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">green grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">緑の草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roof11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">屋根11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roof12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">屋根12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roof13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">屋根13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roof14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">屋根14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roof15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">屋根15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roof16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">屋根16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roof17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">屋根17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neon line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ネオンライン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coral reef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">珊瑚礁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deep seaweed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">深海藻</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cabocchi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">カボチ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 11.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 17.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 21.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 15.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta 22.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 12.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 13.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 21.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 21.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta 22.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta 22.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta 22.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta 22.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta 22.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.12 fix 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.83 Patch 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.126</t>
+  </si>
+  <si>
     <t xml:space="preserve">EA 23.129</t>
   </si>
   <si>
-    <t xml:space="preserve">momiji</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ぬる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">花</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blue flower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">青い花</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yellow flower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黄色い花</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">white flower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">白い花</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">weed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">雑草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mushroom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">きのこ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rafflesia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ラフレシア</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pebble</t>
-  </si>
-  <si>
-    <t xml:space="preserve">石ころ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crystal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">クリスタル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">石</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mushroom tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">紫のマッシュルームツリー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">christmas tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">クリスマスツリー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">クリム</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">緑のマッシュルームツリー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cactus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">サボテン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">palulu tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">パルルの木</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鉱脈</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gem ore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">貴鉱脈</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">water lily</t>
-  </si>
-  <si>
-    <t xml:space="preserve">水蓮</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wall support</t>
-  </si>
-  <si>
-    <t xml:space="preserve">木の支柱</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roof</t>
-  </si>
-  <si>
-    <t xml:space="preserve">屋根</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">window</t>
-  </si>
-  <si>
-    <t xml:space="preserve">窓</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wall frame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">木枠</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">road</t>
-  </si>
-  <si>
-    <t xml:space="preserve">舗装</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roof2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">屋根2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roof3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">屋根3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roof4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">屋根4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roof5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">屋根5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roof6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">屋根6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">track</t>
-  </si>
-  <si>
-    <t xml:space="preserve">線路</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chasm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">裂け目</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stone road</t>
-  </si>
-  <si>
-    <t xml:space="preserve">石の小道</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wreck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">残骸</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wheat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">麦</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">radish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大根</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">テスト植物</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cabbage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">キャベツ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tomato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">トマト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carrot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">にんじん</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">イーモ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">corn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">とうもろこし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">小道</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">narrow road</t>
-  </si>
-  <si>
-    <t xml:space="preserve">細い小道</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chunk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">塊</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">青のマッシュルームツリー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bird's nest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鳥の巣</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">apple tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">林檎の木</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">berry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ベリー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">big rock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大きな岩</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">骨</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rosewood tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ローズウッドの木</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fir tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">モミの木</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cedar tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">杉の木</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">birch tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">樺の木</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pine tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">パインの木</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oak tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">オークの木</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">burnt tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">燃え尽きた木</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">moss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">苔</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vine bush</t>
-  </si>
-  <si>
-    <t xml:space="preserve">蔓</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decayed fossil tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">朽ちた化石樹</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fossil tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">化石樹</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">big fossil tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大きな化石樹</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decayed fossil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">朽ちた化石</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bollard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">係船柱</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roof7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">屋根7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fish silhouette </t>
-  </si>
-  <si>
-    <t xml:space="preserve">魚影</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mahogany tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">マホガニーの木</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acacia tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アカシアの木</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cracked floor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">欠けた床</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stump</t>
-  </si>
-  <si>
-    <t xml:space="preserve">切り株</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seaweed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海藻</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">貝殻</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">珊瑚</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">willow tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">柳の木</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cherry blossom tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">桜の木</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">葡萄</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pile of fallen leaves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">落ち葉</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cotton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コットン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">亡骸</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mound</t>
-  </si>
-  <si>
-    <t xml:space="preserve">盛り上がった土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">稲</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">white line</t>
-  </si>
-  <si>
-    <t xml:space="preserve">白線</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rainbow fruit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">万色フルーツ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">salt rock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">岩塩</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">border</t>
-  </si>
-  <si>
-    <t xml:space="preserve">枠</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stalagmite </t>
-  </si>
-  <si>
-    <t xml:space="preserve">石筍</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decayed tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">朽木</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decayed wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">崩れた壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cattail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ガマ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">huge rock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">巨大な岩</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sulfur rock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">硫黄岩</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bamboo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">竹</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">api</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アピ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pasture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">牧草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chemicals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">化学物質</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silver grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ススキ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">debris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">デブリ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conveyor belt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ベルトコンベア</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fragments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">破片</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">banana tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">バナナの木</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">orange tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">蜜柑の木</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pear tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">梨の木</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">red grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">赤い草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blue grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">青い草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">purple grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">紫の草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">feywood tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">フェイウッドの木</t>
-  </si>
-  <si>
-    <t xml:space="preserve">119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coralwood tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コーラルウッドの木</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">シダ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coffee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コフィ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tobacc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">タバック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roof8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">屋根8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roof9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">屋根9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roof10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">屋根10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">green grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">緑の草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roof11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">屋根11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roof12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">屋根12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roof13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">屋根13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">屋根14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">屋根15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 11.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 17.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 21.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 15.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beta 22.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 12.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 13.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 21.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 21.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beta 22.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beta 22.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beta 22.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beta 22.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beta 22.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.12 fix 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.83 Patch 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.126</t>
+    <t xml:space="preserve">EA 23.130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.142</t>
   </si>
   <si>
     <t xml:space="preserve">null</t>
@@ -1569,6 +1641,27 @@
   </si>
   <si>
     <t xml:space="preserve">屋顶13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">屋顶14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">屋顶15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">屋顶16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">屋顶17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">霓虹灯线</t>
+  </si>
+  <si>
+    <t xml:space="preserve">深海海藻</t>
+  </si>
+  <si>
+    <t xml:space="preserve">楠瓜</t>
   </si>
 </sst>
 </file>
@@ -1680,10 +1773,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C3" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -1699,7 +1792,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -1718,10 +1811,10 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C5" t="s">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -1737,10 +1830,10 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C6" t="s">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
@@ -1756,10 +1849,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C7" t="s">
-        <v>415</v>
+        <v>439</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -1775,10 +1868,10 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C8" t="s">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
@@ -1794,10 +1887,10 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C9" t="s">
-        <v>417</v>
+        <v>441</v>
       </c>
       <c r="D9" t="s">
         <v>28</v>
@@ -1813,10 +1906,10 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C10" t="s">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -1832,10 +1925,10 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C11" t="s">
-        <v>418</v>
+        <v>442</v>
       </c>
       <c r="D11" t="s">
         <v>32</v>
@@ -1851,10 +1944,10 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C12" t="s">
-        <v>419</v>
+        <v>443</v>
       </c>
       <c r="D12" t="s">
         <v>35</v>
@@ -1870,10 +1963,10 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C13" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
@@ -1889,7 +1982,7 @@
         <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C14" t="s">
         <v>42</v>
@@ -1908,10 +2001,10 @@
         <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C15" t="s">
-        <v>421</v>
+        <v>445</v>
       </c>
       <c r="D15" t="s">
         <v>44</v>
@@ -1927,10 +2020,10 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C16" t="s">
-        <v>422</v>
+        <v>446</v>
       </c>
       <c r="D16" t="s">
         <v>47</v>
@@ -1946,10 +2039,10 @@
         <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="C17" t="s">
-        <v>423</v>
+        <v>447</v>
       </c>
       <c r="D17" t="s">
         <v>50</v>
@@ -1965,10 +2058,10 @@
         <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C18" t="s">
-        <v>424</v>
+        <v>448</v>
       </c>
       <c r="D18" t="s">
         <v>44</v>
@@ -1984,10 +2077,10 @@
         <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C19" t="s">
-        <v>425</v>
+        <v>449</v>
       </c>
       <c r="D19" t="s">
         <v>55</v>
@@ -2003,10 +2096,10 @@
         <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C20" t="s">
-        <v>426</v>
+        <v>450</v>
       </c>
       <c r="D20" t="s">
         <v>58</v>
@@ -2022,10 +2115,10 @@
         <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C21" t="s">
-        <v>427</v>
+        <v>451</v>
       </c>
       <c r="D21" t="s">
         <v>61</v>
@@ -2041,10 +2134,10 @@
         <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C22" t="s">
-        <v>428</v>
+        <v>452</v>
       </c>
       <c r="D22" t="s">
         <v>64</v>
@@ -2060,10 +2153,10 @@
         <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="C23" t="s">
-        <v>429</v>
+        <v>453</v>
       </c>
       <c r="D23" t="s">
         <v>67</v>
@@ -2079,10 +2172,10 @@
         <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C24" t="s">
-        <v>430</v>
+        <v>454</v>
       </c>
       <c r="D24" t="s">
         <v>70</v>
@@ -2098,10 +2191,10 @@
         <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C25" t="s">
-        <v>431</v>
+        <v>455</v>
       </c>
       <c r="D25" t="s">
         <v>73</v>
@@ -2117,10 +2210,10 @@
         <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C26" t="s">
-        <v>432</v>
+        <v>456</v>
       </c>
       <c r="D26" t="s">
         <v>76</v>
@@ -2136,10 +2229,10 @@
         <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="C27" t="s">
-        <v>433</v>
+        <v>457</v>
       </c>
       <c r="D27" t="s">
         <v>79</v>
@@ -2155,10 +2248,10 @@
         <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C28" t="s">
-        <v>434</v>
+        <v>458</v>
       </c>
       <c r="D28" t="s">
         <v>82</v>
@@ -2174,10 +2267,10 @@
         <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C29" t="s">
-        <v>435</v>
+        <v>459</v>
       </c>
       <c r="D29" t="s">
         <v>85</v>
@@ -2193,10 +2286,10 @@
         <v>87</v>
       </c>
       <c r="B30" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C30" t="s">
-        <v>436</v>
+        <v>460</v>
       </c>
       <c r="D30" t="s">
         <v>88</v>
@@ -2212,10 +2305,10 @@
         <v>90</v>
       </c>
       <c r="B31" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C31" t="s">
-        <v>437</v>
+        <v>461</v>
       </c>
       <c r="D31" t="s">
         <v>91</v>
@@ -2231,10 +2324,10 @@
         <v>93</v>
       </c>
       <c r="B32" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C32" t="s">
-        <v>438</v>
+        <v>462</v>
       </c>
       <c r="D32" t="s">
         <v>94</v>
@@ -2250,10 +2343,10 @@
         <v>96</v>
       </c>
       <c r="B33" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C33" t="s">
-        <v>439</v>
+        <v>463</v>
       </c>
       <c r="D33" t="s">
         <v>97</v>
@@ -2269,10 +2362,10 @@
         <v>99</v>
       </c>
       <c r="B34" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C34" t="s">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="D34" t="s">
         <v>100</v>
@@ -2288,10 +2381,10 @@
         <v>102</v>
       </c>
       <c r="B35" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C35" t="s">
-        <v>441</v>
+        <v>465</v>
       </c>
       <c r="D35" t="s">
         <v>103</v>
@@ -2307,10 +2400,10 @@
         <v>105</v>
       </c>
       <c r="B36" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C36" t="s">
-        <v>442</v>
+        <v>466</v>
       </c>
       <c r="D36" t="s">
         <v>106</v>
@@ -2326,7 +2419,7 @@
         <v>108</v>
       </c>
       <c r="B37" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="C37" t="s">
         <v>110</v>
@@ -2345,7 +2438,7 @@
         <v>111</v>
       </c>
       <c r="B38" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C38" t="s">
         <v>113</v>
@@ -2364,10 +2457,10 @@
         <v>114</v>
       </c>
       <c r="B39" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C39" t="s">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="D39" t="s">
         <v>115</v>
@@ -2383,10 +2476,10 @@
         <v>117</v>
       </c>
       <c r="B40" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C40" t="s">
-        <v>444</v>
+        <v>468</v>
       </c>
       <c r="D40" t="s">
         <v>118</v>
@@ -2402,10 +2495,10 @@
         <v>120</v>
       </c>
       <c r="B41" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C41" t="s">
-        <v>445</v>
+        <v>469</v>
       </c>
       <c r="D41" t="s">
         <v>121</v>
@@ -2421,10 +2514,10 @@
         <v>123</v>
       </c>
       <c r="B42" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C42" t="s">
-        <v>446</v>
+        <v>470</v>
       </c>
       <c r="D42" t="s">
         <v>124</v>
@@ -2440,10 +2533,10 @@
         <v>126</v>
       </c>
       <c r="B43" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="C43" t="s">
-        <v>447</v>
+        <v>471</v>
       </c>
       <c r="D43" t="s">
         <v>127</v>
@@ -2459,10 +2552,10 @@
         <v>129</v>
       </c>
       <c r="B44" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="C44" t="s">
-        <v>448</v>
+        <v>472</v>
       </c>
       <c r="D44" t="s">
         <v>130</v>
@@ -2478,10 +2571,10 @@
         <v>132</v>
       </c>
       <c r="B45" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="C45" t="s">
-        <v>449</v>
+        <v>473</v>
       </c>
       <c r="D45" t="s">
         <v>133</v>
@@ -2497,7 +2590,7 @@
         <v>135</v>
       </c>
       <c r="B46" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C46" t="s">
         <v>136</v>
@@ -2516,10 +2609,10 @@
         <v>137</v>
       </c>
       <c r="B47" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C47" t="s">
-        <v>450</v>
+        <v>474</v>
       </c>
       <c r="D47" t="s">
         <v>138</v>
@@ -2535,10 +2628,10 @@
         <v>140</v>
       </c>
       <c r="B48" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C48" t="s">
-        <v>451</v>
+        <v>475</v>
       </c>
       <c r="D48" t="s">
         <v>141</v>
@@ -2554,7 +2647,7 @@
         <v>143</v>
       </c>
       <c r="B49" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C49" t="s">
         <v>110</v>
@@ -2573,10 +2666,10 @@
         <v>144</v>
       </c>
       <c r="B50" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C50" t="s">
-        <v>452</v>
+        <v>476</v>
       </c>
       <c r="D50" t="s">
         <v>44</v>
@@ -2592,10 +2685,10 @@
         <v>146</v>
       </c>
       <c r="B51" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C51" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="D51" t="s">
         <v>147</v>
@@ -2611,10 +2704,10 @@
         <v>149</v>
       </c>
       <c r="B52" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="C52" t="s">
-        <v>454</v>
+        <v>478</v>
       </c>
       <c r="D52" t="s">
         <v>150</v>
@@ -2630,10 +2723,10 @@
         <v>152</v>
       </c>
       <c r="B53" t="s">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="C53" t="s">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="D53" t="s">
         <v>153</v>
@@ -2649,10 +2742,10 @@
         <v>155</v>
       </c>
       <c r="B54" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C54" t="s">
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="D54" t="s">
         <v>156</v>
@@ -2668,7 +2761,7 @@
         <v>158</v>
       </c>
       <c r="B55" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C55" t="s">
         <v>160</v>
@@ -2687,10 +2780,10 @@
         <v>161</v>
       </c>
       <c r="B56" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C56" t="s">
-        <v>457</v>
+        <v>481</v>
       </c>
       <c r="D56" t="s">
         <v>162</v>
@@ -2706,10 +2799,10 @@
         <v>164</v>
       </c>
       <c r="B57" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C57" t="s">
-        <v>458</v>
+        <v>482</v>
       </c>
       <c r="D57" t="s">
         <v>165</v>
@@ -2725,10 +2818,10 @@
         <v>167</v>
       </c>
       <c r="B58" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C58" t="s">
-        <v>459</v>
+        <v>483</v>
       </c>
       <c r="D58" t="s">
         <v>168</v>
@@ -2744,10 +2837,10 @@
         <v>170</v>
       </c>
       <c r="B59" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C59" t="s">
-        <v>460</v>
+        <v>484</v>
       </c>
       <c r="D59" t="s">
         <v>171</v>
@@ -2763,10 +2856,10 @@
         <v>173</v>
       </c>
       <c r="B60" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C60" t="s">
-        <v>461</v>
+        <v>485</v>
       </c>
       <c r="D60" t="s">
         <v>174</v>
@@ -2782,10 +2875,10 @@
         <v>176</v>
       </c>
       <c r="B61" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C61" t="s">
-        <v>462</v>
+        <v>486</v>
       </c>
       <c r="D61" t="s">
         <v>177</v>
@@ -2801,10 +2894,10 @@
         <v>179</v>
       </c>
       <c r="B62" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C62" t="s">
-        <v>463</v>
+        <v>487</v>
       </c>
       <c r="D62" t="s">
         <v>180</v>
@@ -2820,10 +2913,10 @@
         <v>182</v>
       </c>
       <c r="B63" t="s">
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="C63" t="s">
-        <v>464</v>
+        <v>488</v>
       </c>
       <c r="D63" t="s">
         <v>183</v>
@@ -2839,10 +2932,10 @@
         <v>185</v>
       </c>
       <c r="B64" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C64" t="s">
-        <v>465</v>
+        <v>489</v>
       </c>
       <c r="D64" t="s">
         <v>186</v>
@@ -2858,10 +2951,10 @@
         <v>188</v>
       </c>
       <c r="B65" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C65" t="s">
-        <v>466</v>
+        <v>490</v>
       </c>
       <c r="D65" t="s">
         <v>189</v>
@@ -2877,10 +2970,10 @@
         <v>191</v>
       </c>
       <c r="B66" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C66" t="s">
-        <v>467</v>
+        <v>491</v>
       </c>
       <c r="D66" t="s">
         <v>192</v>
@@ -2896,10 +2989,10 @@
         <v>194</v>
       </c>
       <c r="B67" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C67" t="s">
-        <v>468</v>
+        <v>492</v>
       </c>
       <c r="D67" t="s">
         <v>195</v>
@@ -2915,10 +3008,10 @@
         <v>197</v>
       </c>
       <c r="B68" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C68" t="s">
-        <v>469</v>
+        <v>493</v>
       </c>
       <c r="D68" t="s">
         <v>198</v>
@@ -2934,10 +3027,10 @@
         <v>200</v>
       </c>
       <c r="B69" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C69" t="s">
-        <v>470</v>
+        <v>494</v>
       </c>
       <c r="D69" t="s">
         <v>201</v>
@@ -2953,10 +3046,10 @@
         <v>203</v>
       </c>
       <c r="B70" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C70" t="s">
-        <v>471</v>
+        <v>495</v>
       </c>
       <c r="D70" t="s">
         <v>204</v>
@@ -2972,10 +3065,10 @@
         <v>206</v>
       </c>
       <c r="B71" t="s">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="C71" t="s">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="D71" t="s">
         <v>207</v>
@@ -2991,10 +3084,10 @@
         <v>209</v>
       </c>
       <c r="B72" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C72" t="s">
-        <v>473</v>
+        <v>497</v>
       </c>
       <c r="D72" t="s">
         <v>210</v>
@@ -3010,10 +3103,10 @@
         <v>212</v>
       </c>
       <c r="B73" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C73" t="s">
-        <v>474</v>
+        <v>498</v>
       </c>
       <c r="D73" t="s">
         <v>213</v>
@@ -3029,10 +3122,10 @@
         <v>215</v>
       </c>
       <c r="B74" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C74" t="s">
-        <v>475</v>
+        <v>499</v>
       </c>
       <c r="D74" t="s">
         <v>216</v>
@@ -3048,10 +3141,10 @@
         <v>218</v>
       </c>
       <c r="B75" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C75" t="s">
-        <v>476</v>
+        <v>500</v>
       </c>
       <c r="D75" t="s">
         <v>219</v>
@@ -3067,7 +3160,7 @@
         <v>221</v>
       </c>
       <c r="B76" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C76" t="s">
         <v>223</v>
@@ -3086,10 +3179,10 @@
         <v>224</v>
       </c>
       <c r="B77" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C77" t="s">
-        <v>477</v>
+        <v>501</v>
       </c>
       <c r="D77" t="s">
         <v>225</v>
@@ -3105,7 +3198,7 @@
         <v>227</v>
       </c>
       <c r="B78" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C78" t="s">
         <v>229</v>
@@ -3124,10 +3217,10 @@
         <v>230</v>
       </c>
       <c r="B79" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C79" t="s">
-        <v>478</v>
+        <v>502</v>
       </c>
       <c r="D79" t="s">
         <v>231</v>
@@ -3143,10 +3236,10 @@
         <v>233</v>
       </c>
       <c r="B80" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C80" t="s">
-        <v>479</v>
+        <v>503</v>
       </c>
       <c r="D80" t="s">
         <v>234</v>
@@ -3162,7 +3255,7 @@
         <v>236</v>
       </c>
       <c r="B81" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="C81" t="s">
         <v>238</v>
@@ -3181,10 +3274,10 @@
         <v>239</v>
       </c>
       <c r="B82" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C82" t="s">
-        <v>480</v>
+        <v>504</v>
       </c>
       <c r="D82" t="s">
         <v>240</v>
@@ -3200,10 +3293,10 @@
         <v>242</v>
       </c>
       <c r="B83" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C83" t="s">
-        <v>481</v>
+        <v>505</v>
       </c>
       <c r="D83" t="s">
         <v>243</v>
@@ -3219,10 +3312,10 @@
         <v>244</v>
       </c>
       <c r="B84" t="s">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="C84" t="s">
-        <v>482</v>
+        <v>506</v>
       </c>
       <c r="D84" t="s">
         <v>245</v>
@@ -3238,7 +3331,7 @@
         <v>247</v>
       </c>
       <c r="B85" t="s">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="C85" t="s">
         <v>249</v>
@@ -3257,7 +3350,7 @@
         <v>250</v>
       </c>
       <c r="B86" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="C86" t="s">
         <v>110</v>
@@ -3276,10 +3369,10 @@
         <v>251</v>
       </c>
       <c r="B87" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="C87" t="s">
-        <v>483</v>
+        <v>507</v>
       </c>
       <c r="D87" t="s">
         <v>252</v>
@@ -3295,7 +3388,7 @@
         <v>254</v>
       </c>
       <c r="B88" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="C88" t="s">
         <v>110</v>
@@ -3314,7 +3407,7 @@
         <v>255</v>
       </c>
       <c r="B89" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="C89" t="s">
         <v>110</v>
@@ -3333,7 +3426,7 @@
         <v>256</v>
       </c>
       <c r="B90" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="C90" t="s">
         <v>110</v>
@@ -3352,10 +3445,10 @@
         <v>257</v>
       </c>
       <c r="B91" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="C91" t="s">
-        <v>484</v>
+        <v>508</v>
       </c>
       <c r="D91" t="s">
         <v>258</v>
@@ -3371,10 +3464,10 @@
         <v>260</v>
       </c>
       <c r="B92" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="C92" t="s">
-        <v>485</v>
+        <v>509</v>
       </c>
       <c r="D92" t="s">
         <v>261</v>
@@ -3390,10 +3483,10 @@
         <v>263</v>
       </c>
       <c r="B93" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="C93" t="s">
-        <v>486</v>
+        <v>510</v>
       </c>
       <c r="D93" t="s">
         <v>264</v>
@@ -3409,10 +3502,10 @@
         <v>266</v>
       </c>
       <c r="B94" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="C94" t="s">
-        <v>487</v>
+        <v>511</v>
       </c>
       <c r="D94" t="s">
         <v>267</v>
@@ -3428,10 +3521,10 @@
         <v>269</v>
       </c>
       <c r="B95" t="s">
-        <v>392</v>
+        <v>412</v>
       </c>
       <c r="C95" t="s">
-        <v>488</v>
+        <v>512</v>
       </c>
       <c r="D95" t="s">
         <v>270</v>
@@ -3447,10 +3540,10 @@
         <v>272</v>
       </c>
       <c r="B96" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="C96" t="s">
-        <v>489</v>
+        <v>513</v>
       </c>
       <c r="D96" t="s">
         <v>273</v>
@@ -3466,7 +3559,7 @@
         <v>275</v>
       </c>
       <c r="B97" t="s">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="C97" t="s">
         <v>277</v>
@@ -3485,10 +3578,10 @@
         <v>278</v>
       </c>
       <c r="B98" t="s">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="C98" t="s">
-        <v>490</v>
+        <v>514</v>
       </c>
       <c r="D98" t="s">
         <v>279</v>
@@ -3504,10 +3597,10 @@
         <v>281</v>
       </c>
       <c r="B99" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="C99" t="s">
-        <v>490</v>
+        <v>514</v>
       </c>
       <c r="D99" t="s">
         <v>279</v>
@@ -3523,10 +3616,10 @@
         <v>282</v>
       </c>
       <c r="B100" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="C100" t="s">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="D100" t="s">
         <v>100</v>
@@ -3542,10 +3635,10 @@
         <v>283</v>
       </c>
       <c r="B101" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="C101" t="s">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="D101" t="s">
         <v>100</v>
@@ -3561,10 +3654,10 @@
         <v>284</v>
       </c>
       <c r="B102" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="C102" t="s">
-        <v>491</v>
+        <v>515</v>
       </c>
       <c r="D102" t="s">
         <v>285</v>
@@ -3580,10 +3673,10 @@
         <v>287</v>
       </c>
       <c r="B103" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="C103" t="s">
-        <v>492</v>
+        <v>516</v>
       </c>
       <c r="D103" t="s">
         <v>288</v>
@@ -3599,10 +3692,10 @@
         <v>290</v>
       </c>
       <c r="B104" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="C104" t="s">
-        <v>433</v>
+        <v>457</v>
       </c>
       <c r="D104" t="s">
         <v>79</v>
@@ -3618,10 +3711,10 @@
         <v>291</v>
       </c>
       <c r="B105" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="C105" t="s">
-        <v>493</v>
+        <v>517</v>
       </c>
       <c r="D105" t="s">
         <v>292</v>
@@ -3637,7 +3730,7 @@
         <v>294</v>
       </c>
       <c r="B106" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="C106" t="s">
         <v>296</v>
@@ -3656,10 +3749,10 @@
         <v>297</v>
       </c>
       <c r="B107" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="C107" t="s">
-        <v>494</v>
+        <v>518</v>
       </c>
       <c r="D107" t="s">
         <v>298</v>
@@ -3675,7 +3768,7 @@
         <v>300</v>
       </c>
       <c r="B108" t="s">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="C108" t="s">
         <v>302</v>
@@ -3694,10 +3787,10 @@
         <v>303</v>
       </c>
       <c r="B109" t="s">
-        <v>397</v>
+        <v>417</v>
       </c>
       <c r="C109" t="s">
-        <v>488</v>
+        <v>512</v>
       </c>
       <c r="D109" t="s">
         <v>79</v>
@@ -3713,10 +3806,10 @@
         <v>304</v>
       </c>
       <c r="B110" t="s">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="C110" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="D110" t="s">
         <v>305</v>
@@ -3732,10 +3825,10 @@
         <v>307</v>
       </c>
       <c r="B111" t="s">
-        <v>397</v>
+        <v>417</v>
       </c>
       <c r="C111" t="s">
-        <v>496</v>
+        <v>520</v>
       </c>
       <c r="D111" t="s">
         <v>308</v>
@@ -3751,10 +3844,10 @@
         <v>310</v>
       </c>
       <c r="B112" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="C112" t="s">
-        <v>497</v>
+        <v>521</v>
       </c>
       <c r="D112" t="s">
         <v>311</v>
@@ -3770,10 +3863,10 @@
         <v>313</v>
       </c>
       <c r="B113" t="s">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="C113" t="s">
-        <v>498</v>
+        <v>522</v>
       </c>
       <c r="D113" t="s">
         <v>314</v>
@@ -3789,10 +3882,10 @@
         <v>316</v>
       </c>
       <c r="B114" t="s">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="C114" t="s">
-        <v>499</v>
+        <v>523</v>
       </c>
       <c r="D114" t="s">
         <v>317</v>
@@ -3808,10 +3901,10 @@
         <v>319</v>
       </c>
       <c r="B115" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="C115" t="s">
-        <v>500</v>
+        <v>524</v>
       </c>
       <c r="D115" t="s">
         <v>320</v>
@@ -3827,10 +3920,10 @@
         <v>322</v>
       </c>
       <c r="B116" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="C116" t="s">
-        <v>501</v>
+        <v>525</v>
       </c>
       <c r="D116" t="s">
         <v>323</v>
@@ -3846,10 +3939,10 @@
         <v>325</v>
       </c>
       <c r="B117" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="C117" t="s">
-        <v>502</v>
+        <v>526</v>
       </c>
       <c r="D117" t="s">
         <v>326</v>
@@ -3865,10 +3958,10 @@
         <v>328</v>
       </c>
       <c r="B118" t="s">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="C118" t="s">
-        <v>503</v>
+        <v>527</v>
       </c>
       <c r="D118" t="s">
         <v>329</v>
@@ -3884,10 +3977,10 @@
         <v>331</v>
       </c>
       <c r="B119" t="s">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="C119" t="s">
-        <v>504</v>
+        <v>528</v>
       </c>
       <c r="D119" t="s">
         <v>332</v>
@@ -3903,10 +3996,10 @@
         <v>334</v>
       </c>
       <c r="B120" t="s">
-        <v>401</v>
+        <v>421</v>
       </c>
       <c r="C120" t="s">
-        <v>505</v>
+        <v>529</v>
       </c>
       <c r="D120" t="s">
         <v>335</v>
@@ -3922,10 +4015,10 @@
         <v>337</v>
       </c>
       <c r="B121" t="s">
-        <v>402</v>
+        <v>422</v>
       </c>
       <c r="C121" t="s">
-        <v>506</v>
+        <v>530</v>
       </c>
       <c r="D121" t="s">
         <v>338</v>
@@ -3941,10 +4034,10 @@
         <v>340</v>
       </c>
       <c r="B122" t="s">
-        <v>403</v>
+        <v>423</v>
       </c>
       <c r="C122" t="s">
-        <v>507</v>
+        <v>531</v>
       </c>
       <c r="D122" t="s">
         <v>341</v>
@@ -3960,10 +4053,10 @@
         <v>343</v>
       </c>
       <c r="B123" t="s">
-        <v>404</v>
+        <v>424</v>
       </c>
       <c r="C123" t="s">
-        <v>415</v>
+        <v>439</v>
       </c>
       <c r="D123" t="s">
         <v>22</v>
@@ -3979,10 +4072,10 @@
         <v>344</v>
       </c>
       <c r="B124" t="s">
-        <v>404</v>
+        <v>424</v>
       </c>
       <c r="C124" t="s">
-        <v>508</v>
+        <v>532</v>
       </c>
       <c r="D124" t="s">
         <v>345</v>
@@ -3998,10 +4091,10 @@
         <v>347</v>
       </c>
       <c r="B125" t="s">
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="C125" t="s">
-        <v>509</v>
+        <v>533</v>
       </c>
       <c r="D125" t="s">
         <v>348</v>
@@ -4017,10 +4110,10 @@
         <v>350</v>
       </c>
       <c r="B126" t="s">
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="C126" t="s">
-        <v>510</v>
+        <v>534</v>
       </c>
       <c r="D126" t="s">
         <v>351</v>
@@ -4036,10 +4129,10 @@
         <v>353</v>
       </c>
       <c r="B127" t="s">
-        <v>406</v>
+        <v>426</v>
       </c>
       <c r="C127" t="s">
-        <v>511</v>
+        <v>535</v>
       </c>
       <c r="D127" t="s">
         <v>354</v>
@@ -4055,10 +4148,10 @@
         <v>356</v>
       </c>
       <c r="B128" t="s">
-        <v>407</v>
+        <v>427</v>
       </c>
       <c r="C128" t="s">
-        <v>512</v>
+        <v>536</v>
       </c>
       <c r="D128" t="s">
         <v>357</v>
@@ -4074,10 +4167,10 @@
         <v>359</v>
       </c>
       <c r="B129" t="s">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="C129" t="s">
-        <v>513</v>
+        <v>537</v>
       </c>
       <c r="D129" t="s">
         <v>360</v>
@@ -4093,10 +4186,10 @@
         <v>362</v>
       </c>
       <c r="B130" t="s">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="C130" t="s">
-        <v>514</v>
+        <v>538</v>
       </c>
       <c r="D130" t="s">
         <v>363</v>
@@ -4112,10 +4205,10 @@
         <v>365</v>
       </c>
       <c r="B131" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="C131" t="s">
-        <v>515</v>
+        <v>539</v>
       </c>
       <c r="D131" t="s">
         <v>366</v>
@@ -4131,10 +4224,10 @@
         <v>368</v>
       </c>
       <c r="B132" t="s">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="C132" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
       <c r="D132" t="s">
         <v>369</v>
@@ -4150,10 +4243,10 @@
         <v>371</v>
       </c>
       <c r="B133" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
       <c r="C133" t="s">
-        <v>517</v>
+        <v>541</v>
       </c>
       <c r="D133" t="s">
         <v>372</v>
@@ -4169,32 +4262,152 @@
         <v>374</v>
       </c>
       <c r="B134" t="s">
-        <v>9</v>
+        <v>432</v>
+      </c>
+      <c r="C134" t="s">
+        <v>542</v>
       </c>
       <c r="D134" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="E134" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G134"/>
       <c r="H134"/>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B135" t="s">
-        <v>9</v>
+        <v>432</v>
+      </c>
+      <c r="C135" t="s">
+        <v>543</v>
       </c>
       <c r="D135" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="E135" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G135"/>
       <c r="H135"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>380</v>
+      </c>
+      <c r="B136" t="s">
+        <v>433</v>
+      </c>
+      <c r="C136" t="s">
+        <v>544</v>
+      </c>
+      <c r="D136" t="s">
+        <v>381</v>
+      </c>
+      <c r="E136" t="s">
+        <v>382</v>
+      </c>
+      <c r="G136"/>
+      <c r="H136"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>383</v>
+      </c>
+      <c r="B137" t="s">
+        <v>433</v>
+      </c>
+      <c r="C137" t="s">
+        <v>545</v>
+      </c>
+      <c r="D137" t="s">
+        <v>384</v>
+      </c>
+      <c r="E137" t="s">
+        <v>385</v>
+      </c>
+      <c r="G137"/>
+      <c r="H137"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>386</v>
+      </c>
+      <c r="B138" t="s">
+        <v>433</v>
+      </c>
+      <c r="C138" t="s">
+        <v>546</v>
+      </c>
+      <c r="D138" t="s">
+        <v>387</v>
+      </c>
+      <c r="E138" t="s">
+        <v>388</v>
+      </c>
+      <c r="G138"/>
+      <c r="H138"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>389</v>
+      </c>
+      <c r="B139" t="s">
+        <v>434</v>
+      </c>
+      <c r="C139" t="s">
+        <v>391</v>
+      </c>
+      <c r="D139" t="s">
+        <v>390</v>
+      </c>
+      <c r="E139" t="s">
+        <v>391</v>
+      </c>
+      <c r="G139"/>
+      <c r="H139"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>392</v>
+      </c>
+      <c r="B140" t="s">
+        <v>434</v>
+      </c>
+      <c r="C140" t="s">
+        <v>547</v>
+      </c>
+      <c r="D140" t="s">
+        <v>393</v>
+      </c>
+      <c r="E140" t="s">
+        <v>394</v>
+      </c>
+      <c r="G140"/>
+      <c r="H140"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>395</v>
+      </c>
+      <c r="B141" t="s">
+        <v>435</v>
+      </c>
+      <c r="C141" t="s">
+        <v>548</v>
+      </c>
+      <c r="D141" t="s">
+        <v>396</v>
+      </c>
+      <c r="E141" t="s">
+        <v>397</v>
+      </c>
+      <c r="G141"/>
+      <c r="H141"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H2"/>

--- a/Original/CN/Game/Obj.xlsx
+++ b/Original/CN/Game/Obj.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.152</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">momiji</t>

--- a/Original/CN/Game/Obj.xlsx
+++ b/Original/CN/Game/Obj.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="571">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.200</t>
+    <t xml:space="preserve">EA 23.252</t>
   </si>
   <si>
     <t xml:space="preserve">momiji</t>
@@ -1211,6 +1211,48 @@
     <t xml:space="preserve">カボチ</t>
   </si>
   <si>
+    <t xml:space="preserve">139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sunflower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ひまわり</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tulip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">チューリップ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red pepper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">トウガラシ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bone mound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">骨塚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">竜骨</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alpha 11.1</t>
   </si>
   <si>
@@ -1325,6 +1367,15 @@
     <t xml:space="preserve">EA 23.142</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.245</t>
+  </si>
+  <si>
     <t xml:space="preserve">null</t>
   </si>
   <si>
@@ -1517,7 +1568,7 @@
     <t xml:space="preserve">残缺地板</t>
   </si>
   <si>
-    <t xml:space="preserve">树墩</t>
+    <t xml:space="preserve">树桩</t>
   </si>
   <si>
     <t xml:space="preserve">贝壳</t>
@@ -1662,6 +1713,21 @@
   </si>
   <si>
     <t xml:space="preserve">楠瓜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">向日葵</t>
+  </si>
+  <si>
+    <t xml:space="preserve">郁金香</t>
+  </si>
+  <si>
+    <t xml:space="preserve">辣椒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">骸骨堆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">龙骨</t>
   </si>
 </sst>
 </file>
@@ -1773,10 +1839,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C3" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -1792,7 +1858,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -1811,10 +1877,10 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C5" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -1830,10 +1896,10 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C6" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
@@ -1849,10 +1915,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C7" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -1868,10 +1934,10 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C8" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
@@ -1887,10 +1953,10 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C9" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="D9" t="s">
         <v>28</v>
@@ -1906,10 +1972,10 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C10" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -1925,10 +1991,10 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C11" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="D11" t="s">
         <v>32</v>
@@ -1944,10 +2010,10 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C12" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="D12" t="s">
         <v>35</v>
@@ -1963,10 +2029,10 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C13" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
@@ -1982,7 +2048,7 @@
         <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C14" t="s">
         <v>42</v>
@@ -2001,10 +2067,10 @@
         <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C15" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="D15" t="s">
         <v>44</v>
@@ -2020,10 +2086,10 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C16" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="D16" t="s">
         <v>47</v>
@@ -2039,10 +2105,10 @@
         <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="C17" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="D17" t="s">
         <v>50</v>
@@ -2058,10 +2124,10 @@
         <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C18" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="D18" t="s">
         <v>44</v>
@@ -2077,10 +2143,10 @@
         <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C19" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="D19" t="s">
         <v>55</v>
@@ -2096,10 +2162,10 @@
         <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C20" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="D20" t="s">
         <v>58</v>
@@ -2115,10 +2181,10 @@
         <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C21" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="D21" t="s">
         <v>61</v>
@@ -2134,10 +2200,10 @@
         <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C22" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="D22" t="s">
         <v>64</v>
@@ -2153,10 +2219,10 @@
         <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="C23" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="D23" t="s">
         <v>67</v>
@@ -2172,10 +2238,10 @@
         <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C24" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="D24" t="s">
         <v>70</v>
@@ -2191,10 +2257,10 @@
         <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C25" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="D25" t="s">
         <v>73</v>
@@ -2210,10 +2276,10 @@
         <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C26" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="D26" t="s">
         <v>76</v>
@@ -2229,10 +2295,10 @@
         <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="C27" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
       <c r="D27" t="s">
         <v>79</v>
@@ -2248,10 +2314,10 @@
         <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C28" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="D28" t="s">
         <v>82</v>
@@ -2267,10 +2333,10 @@
         <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C29" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="D29" t="s">
         <v>85</v>
@@ -2286,10 +2352,10 @@
         <v>87</v>
       </c>
       <c r="B30" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C30" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="D30" t="s">
         <v>88</v>
@@ -2305,10 +2371,10 @@
         <v>90</v>
       </c>
       <c r="B31" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C31" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="D31" t="s">
         <v>91</v>
@@ -2324,10 +2390,10 @@
         <v>93</v>
       </c>
       <c r="B32" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C32" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="D32" t="s">
         <v>94</v>
@@ -2343,10 +2409,10 @@
         <v>96</v>
       </c>
       <c r="B33" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C33" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="D33" t="s">
         <v>97</v>
@@ -2362,10 +2428,10 @@
         <v>99</v>
       </c>
       <c r="B34" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C34" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="D34" t="s">
         <v>100</v>
@@ -2381,10 +2447,10 @@
         <v>102</v>
       </c>
       <c r="B35" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C35" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
       <c r="D35" t="s">
         <v>103</v>
@@ -2400,10 +2466,10 @@
         <v>105</v>
       </c>
       <c r="B36" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C36" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="D36" t="s">
         <v>106</v>
@@ -2419,7 +2485,7 @@
         <v>108</v>
       </c>
       <c r="B37" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="C37" t="s">
         <v>110</v>
@@ -2438,7 +2504,7 @@
         <v>111</v>
       </c>
       <c r="B38" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C38" t="s">
         <v>113</v>
@@ -2457,10 +2523,10 @@
         <v>114</v>
       </c>
       <c r="B39" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C39" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
       <c r="D39" t="s">
         <v>115</v>
@@ -2476,10 +2542,10 @@
         <v>117</v>
       </c>
       <c r="B40" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C40" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="D40" t="s">
         <v>118</v>
@@ -2495,10 +2561,10 @@
         <v>120</v>
       </c>
       <c r="B41" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C41" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="D41" t="s">
         <v>121</v>
@@ -2514,10 +2580,10 @@
         <v>123</v>
       </c>
       <c r="B42" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C42" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="D42" t="s">
         <v>124</v>
@@ -2533,10 +2599,10 @@
         <v>126</v>
       </c>
       <c r="B43" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="C43" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="D43" t="s">
         <v>127</v>
@@ -2552,10 +2618,10 @@
         <v>129</v>
       </c>
       <c r="B44" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="C44" t="s">
-        <v>472</v>
+        <v>489</v>
       </c>
       <c r="D44" t="s">
         <v>130</v>
@@ -2571,10 +2637,10 @@
         <v>132</v>
       </c>
       <c r="B45" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="C45" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="D45" t="s">
         <v>133</v>
@@ -2590,7 +2656,7 @@
         <v>135</v>
       </c>
       <c r="B46" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C46" t="s">
         <v>136</v>
@@ -2609,10 +2675,10 @@
         <v>137</v>
       </c>
       <c r="B47" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C47" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="D47" t="s">
         <v>138</v>
@@ -2628,10 +2694,10 @@
         <v>140</v>
       </c>
       <c r="B48" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C48" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="D48" t="s">
         <v>141</v>
@@ -2647,7 +2713,7 @@
         <v>143</v>
       </c>
       <c r="B49" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C49" t="s">
         <v>110</v>
@@ -2666,10 +2732,10 @@
         <v>144</v>
       </c>
       <c r="B50" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C50" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="D50" t="s">
         <v>44</v>
@@ -2685,10 +2751,10 @@
         <v>146</v>
       </c>
       <c r="B51" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C51" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="D51" t="s">
         <v>147</v>
@@ -2704,10 +2770,10 @@
         <v>149</v>
       </c>
       <c r="B52" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="C52" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="D52" t="s">
         <v>150</v>
@@ -2723,10 +2789,10 @@
         <v>152</v>
       </c>
       <c r="B53" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="C53" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="D53" t="s">
         <v>153</v>
@@ -2742,10 +2808,10 @@
         <v>155</v>
       </c>
       <c r="B54" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C54" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="D54" t="s">
         <v>156</v>
@@ -2761,7 +2827,7 @@
         <v>158</v>
       </c>
       <c r="B55" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C55" t="s">
         <v>160</v>
@@ -2780,10 +2846,10 @@
         <v>161</v>
       </c>
       <c r="B56" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C56" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="D56" t="s">
         <v>162</v>
@@ -2799,10 +2865,10 @@
         <v>164</v>
       </c>
       <c r="B57" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C57" t="s">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="D57" t="s">
         <v>165</v>
@@ -2818,10 +2884,10 @@
         <v>167</v>
       </c>
       <c r="B58" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C58" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
       <c r="D58" t="s">
         <v>168</v>
@@ -2837,10 +2903,10 @@
         <v>170</v>
       </c>
       <c r="B59" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C59" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
       <c r="D59" t="s">
         <v>171</v>
@@ -2856,10 +2922,10 @@
         <v>173</v>
       </c>
       <c r="B60" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C60" t="s">
-        <v>485</v>
+        <v>502</v>
       </c>
       <c r="D60" t="s">
         <v>174</v>
@@ -2875,10 +2941,10 @@
         <v>176</v>
       </c>
       <c r="B61" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C61" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="D61" t="s">
         <v>177</v>
@@ -2894,10 +2960,10 @@
         <v>179</v>
       </c>
       <c r="B62" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C62" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
       <c r="D62" t="s">
         <v>180</v>
@@ -2913,10 +2979,10 @@
         <v>182</v>
       </c>
       <c r="B63" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="C63" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="D63" t="s">
         <v>183</v>
@@ -2932,10 +2998,10 @@
         <v>185</v>
       </c>
       <c r="B64" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C64" t="s">
-        <v>489</v>
+        <v>506</v>
       </c>
       <c r="D64" t="s">
         <v>186</v>
@@ -2951,10 +3017,10 @@
         <v>188</v>
       </c>
       <c r="B65" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C65" t="s">
-        <v>490</v>
+        <v>507</v>
       </c>
       <c r="D65" t="s">
         <v>189</v>
@@ -2970,10 +3036,10 @@
         <v>191</v>
       </c>
       <c r="B66" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C66" t="s">
-        <v>491</v>
+        <v>508</v>
       </c>
       <c r="D66" t="s">
         <v>192</v>
@@ -2989,10 +3055,10 @@
         <v>194</v>
       </c>
       <c r="B67" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C67" t="s">
-        <v>492</v>
+        <v>509</v>
       </c>
       <c r="D67" t="s">
         <v>195</v>
@@ -3008,10 +3074,10 @@
         <v>197</v>
       </c>
       <c r="B68" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C68" t="s">
-        <v>493</v>
+        <v>510</v>
       </c>
       <c r="D68" t="s">
         <v>198</v>
@@ -3027,10 +3093,10 @@
         <v>200</v>
       </c>
       <c r="B69" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C69" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
       <c r="D69" t="s">
         <v>201</v>
@@ -3046,10 +3112,10 @@
         <v>203</v>
       </c>
       <c r="B70" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C70" t="s">
-        <v>495</v>
+        <v>512</v>
       </c>
       <c r="D70" t="s">
         <v>204</v>
@@ -3065,10 +3131,10 @@
         <v>206</v>
       </c>
       <c r="B71" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="C71" t="s">
-        <v>496</v>
+        <v>513</v>
       </c>
       <c r="D71" t="s">
         <v>207</v>
@@ -3084,10 +3150,10 @@
         <v>209</v>
       </c>
       <c r="B72" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C72" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="D72" t="s">
         <v>210</v>
@@ -3103,10 +3169,10 @@
         <v>212</v>
       </c>
       <c r="B73" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C73" t="s">
-        <v>498</v>
+        <v>515</v>
       </c>
       <c r="D73" t="s">
         <v>213</v>
@@ -3122,10 +3188,10 @@
         <v>215</v>
       </c>
       <c r="B74" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C74" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
       <c r="D74" t="s">
         <v>216</v>
@@ -3141,10 +3207,10 @@
         <v>218</v>
       </c>
       <c r="B75" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C75" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
       <c r="D75" t="s">
         <v>219</v>
@@ -3160,7 +3226,7 @@
         <v>221</v>
       </c>
       <c r="B76" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C76" t="s">
         <v>223</v>
@@ -3179,10 +3245,10 @@
         <v>224</v>
       </c>
       <c r="B77" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C77" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="D77" t="s">
         <v>225</v>
@@ -3198,7 +3264,7 @@
         <v>227</v>
       </c>
       <c r="B78" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C78" t="s">
         <v>229</v>
@@ -3217,10 +3283,10 @@
         <v>230</v>
       </c>
       <c r="B79" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C79" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
       <c r="D79" t="s">
         <v>231</v>
@@ -3236,10 +3302,10 @@
         <v>233</v>
       </c>
       <c r="B80" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C80" t="s">
-        <v>503</v>
+        <v>520</v>
       </c>
       <c r="D80" t="s">
         <v>234</v>
@@ -3255,7 +3321,7 @@
         <v>236</v>
       </c>
       <c r="B81" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="C81" t="s">
         <v>238</v>
@@ -3274,10 +3340,10 @@
         <v>239</v>
       </c>
       <c r="B82" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C82" t="s">
-        <v>504</v>
+        <v>521</v>
       </c>
       <c r="D82" t="s">
         <v>240</v>
@@ -3293,10 +3359,10 @@
         <v>242</v>
       </c>
       <c r="B83" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C83" t="s">
-        <v>505</v>
+        <v>522</v>
       </c>
       <c r="D83" t="s">
         <v>243</v>
@@ -3312,10 +3378,10 @@
         <v>244</v>
       </c>
       <c r="B84" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="C84" t="s">
-        <v>506</v>
+        <v>523</v>
       </c>
       <c r="D84" t="s">
         <v>245</v>
@@ -3331,7 +3397,7 @@
         <v>247</v>
       </c>
       <c r="B85" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="C85" t="s">
         <v>249</v>
@@ -3350,7 +3416,7 @@
         <v>250</v>
       </c>
       <c r="B86" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="C86" t="s">
         <v>110</v>
@@ -3369,10 +3435,10 @@
         <v>251</v>
       </c>
       <c r="B87" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="C87" t="s">
-        <v>507</v>
+        <v>524</v>
       </c>
       <c r="D87" t="s">
         <v>252</v>
@@ -3388,7 +3454,7 @@
         <v>254</v>
       </c>
       <c r="B88" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="C88" t="s">
         <v>110</v>
@@ -3407,7 +3473,7 @@
         <v>255</v>
       </c>
       <c r="B89" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="C89" t="s">
         <v>110</v>
@@ -3426,7 +3492,7 @@
         <v>256</v>
       </c>
       <c r="B90" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="C90" t="s">
         <v>110</v>
@@ -3445,10 +3511,10 @@
         <v>257</v>
       </c>
       <c r="B91" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="C91" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="D91" t="s">
         <v>258</v>
@@ -3464,10 +3530,10 @@
         <v>260</v>
       </c>
       <c r="B92" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="C92" t="s">
-        <v>509</v>
+        <v>526</v>
       </c>
       <c r="D92" t="s">
         <v>261</v>
@@ -3483,10 +3549,10 @@
         <v>263</v>
       </c>
       <c r="B93" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="C93" t="s">
-        <v>510</v>
+        <v>527</v>
       </c>
       <c r="D93" t="s">
         <v>264</v>
@@ -3502,10 +3568,10 @@
         <v>266</v>
       </c>
       <c r="B94" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="C94" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="D94" t="s">
         <v>267</v>
@@ -3521,10 +3587,10 @@
         <v>269</v>
       </c>
       <c r="B95" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="C95" t="s">
-        <v>512</v>
+        <v>529</v>
       </c>
       <c r="D95" t="s">
         <v>270</v>
@@ -3540,10 +3606,10 @@
         <v>272</v>
       </c>
       <c r="B96" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="C96" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
       <c r="D96" t="s">
         <v>273</v>
@@ -3559,7 +3625,7 @@
         <v>275</v>
       </c>
       <c r="B97" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="C97" t="s">
         <v>277</v>
@@ -3578,10 +3644,10 @@
         <v>278</v>
       </c>
       <c r="B98" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="C98" t="s">
-        <v>514</v>
+        <v>531</v>
       </c>
       <c r="D98" t="s">
         <v>279</v>
@@ -3597,10 +3663,10 @@
         <v>281</v>
       </c>
       <c r="B99" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="C99" t="s">
-        <v>514</v>
+        <v>531</v>
       </c>
       <c r="D99" t="s">
         <v>279</v>
@@ -3616,10 +3682,10 @@
         <v>282</v>
       </c>
       <c r="B100" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="C100" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="D100" t="s">
         <v>100</v>
@@ -3635,10 +3701,10 @@
         <v>283</v>
       </c>
       <c r="B101" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="C101" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="D101" t="s">
         <v>100</v>
@@ -3654,10 +3720,10 @@
         <v>284</v>
       </c>
       <c r="B102" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="C102" t="s">
-        <v>515</v>
+        <v>532</v>
       </c>
       <c r="D102" t="s">
         <v>285</v>
@@ -3673,10 +3739,10 @@
         <v>287</v>
       </c>
       <c r="B103" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="C103" t="s">
-        <v>516</v>
+        <v>533</v>
       </c>
       <c r="D103" t="s">
         <v>288</v>
@@ -3692,10 +3758,10 @@
         <v>290</v>
       </c>
       <c r="B104" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="C104" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
       <c r="D104" t="s">
         <v>79</v>
@@ -3711,10 +3777,10 @@
         <v>291</v>
       </c>
       <c r="B105" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="C105" t="s">
-        <v>517</v>
+        <v>534</v>
       </c>
       <c r="D105" t="s">
         <v>292</v>
@@ -3730,7 +3796,7 @@
         <v>294</v>
       </c>
       <c r="B106" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="C106" t="s">
         <v>296</v>
@@ -3749,10 +3815,10 @@
         <v>297</v>
       </c>
       <c r="B107" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="C107" t="s">
-        <v>518</v>
+        <v>535</v>
       </c>
       <c r="D107" t="s">
         <v>298</v>
@@ -3768,7 +3834,7 @@
         <v>300</v>
       </c>
       <c r="B108" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="C108" t="s">
         <v>302</v>
@@ -3787,10 +3853,10 @@
         <v>303</v>
       </c>
       <c r="B109" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="C109" t="s">
-        <v>512</v>
+        <v>529</v>
       </c>
       <c r="D109" t="s">
         <v>79</v>
@@ -3806,10 +3872,10 @@
         <v>304</v>
       </c>
       <c r="B110" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="C110" t="s">
-        <v>519</v>
+        <v>536</v>
       </c>
       <c r="D110" t="s">
         <v>305</v>
@@ -3825,10 +3891,10 @@
         <v>307</v>
       </c>
       <c r="B111" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="C111" t="s">
-        <v>520</v>
+        <v>537</v>
       </c>
       <c r="D111" t="s">
         <v>308</v>
@@ -3844,10 +3910,10 @@
         <v>310</v>
       </c>
       <c r="B112" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="C112" t="s">
-        <v>521</v>
+        <v>538</v>
       </c>
       <c r="D112" t="s">
         <v>311</v>
@@ -3863,10 +3929,10 @@
         <v>313</v>
       </c>
       <c r="B113" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="C113" t="s">
-        <v>522</v>
+        <v>539</v>
       </c>
       <c r="D113" t="s">
         <v>314</v>
@@ -3882,10 +3948,10 @@
         <v>316</v>
       </c>
       <c r="B114" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="C114" t="s">
-        <v>523</v>
+        <v>540</v>
       </c>
       <c r="D114" t="s">
         <v>317</v>
@@ -3901,10 +3967,10 @@
         <v>319</v>
       </c>
       <c r="B115" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="C115" t="s">
-        <v>524</v>
+        <v>541</v>
       </c>
       <c r="D115" t="s">
         <v>320</v>
@@ -3920,10 +3986,10 @@
         <v>322</v>
       </c>
       <c r="B116" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="C116" t="s">
-        <v>525</v>
+        <v>542</v>
       </c>
       <c r="D116" t="s">
         <v>323</v>
@@ -3939,10 +4005,10 @@
         <v>325</v>
       </c>
       <c r="B117" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="C117" t="s">
-        <v>526</v>
+        <v>543</v>
       </c>
       <c r="D117" t="s">
         <v>326</v>
@@ -3958,10 +4024,10 @@
         <v>328</v>
       </c>
       <c r="B118" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="C118" t="s">
-        <v>527</v>
+        <v>544</v>
       </c>
       <c r="D118" t="s">
         <v>329</v>
@@ -3977,10 +4043,10 @@
         <v>331</v>
       </c>
       <c r="B119" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="C119" t="s">
-        <v>528</v>
+        <v>545</v>
       </c>
       <c r="D119" t="s">
         <v>332</v>
@@ -3996,10 +4062,10 @@
         <v>334</v>
       </c>
       <c r="B120" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="C120" t="s">
-        <v>529</v>
+        <v>546</v>
       </c>
       <c r="D120" t="s">
         <v>335</v>
@@ -4015,10 +4081,10 @@
         <v>337</v>
       </c>
       <c r="B121" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="C121" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="D121" t="s">
         <v>338</v>
@@ -4034,10 +4100,10 @@
         <v>340</v>
       </c>
       <c r="B122" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="C122" t="s">
-        <v>531</v>
+        <v>548</v>
       </c>
       <c r="D122" t="s">
         <v>341</v>
@@ -4053,10 +4119,10 @@
         <v>343</v>
       </c>
       <c r="B123" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="C123" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="D123" t="s">
         <v>22</v>
@@ -4072,10 +4138,10 @@
         <v>344</v>
       </c>
       <c r="B124" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="C124" t="s">
-        <v>532</v>
+        <v>549</v>
       </c>
       <c r="D124" t="s">
         <v>345</v>
@@ -4091,10 +4157,10 @@
         <v>347</v>
       </c>
       <c r="B125" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="C125" t="s">
-        <v>533</v>
+        <v>550</v>
       </c>
       <c r="D125" t="s">
         <v>348</v>
@@ -4110,10 +4176,10 @@
         <v>350</v>
       </c>
       <c r="B126" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="C126" t="s">
-        <v>534</v>
+        <v>551</v>
       </c>
       <c r="D126" t="s">
         <v>351</v>
@@ -4129,10 +4195,10 @@
         <v>353</v>
       </c>
       <c r="B127" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="C127" t="s">
-        <v>535</v>
+        <v>552</v>
       </c>
       <c r="D127" t="s">
         <v>354</v>
@@ -4148,10 +4214,10 @@
         <v>356</v>
       </c>
       <c r="B128" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="C128" t="s">
-        <v>536</v>
+        <v>553</v>
       </c>
       <c r="D128" t="s">
         <v>357</v>
@@ -4167,10 +4233,10 @@
         <v>359</v>
       </c>
       <c r="B129" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="C129" t="s">
-        <v>537</v>
+        <v>554</v>
       </c>
       <c r="D129" t="s">
         <v>360</v>
@@ -4186,10 +4252,10 @@
         <v>362</v>
       </c>
       <c r="B130" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="C130" t="s">
-        <v>538</v>
+        <v>555</v>
       </c>
       <c r="D130" t="s">
         <v>363</v>
@@ -4205,10 +4271,10 @@
         <v>365</v>
       </c>
       <c r="B131" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="C131" t="s">
-        <v>539</v>
+        <v>556</v>
       </c>
       <c r="D131" t="s">
         <v>366</v>
@@ -4224,10 +4290,10 @@
         <v>368</v>
       </c>
       <c r="B132" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="C132" t="s">
-        <v>540</v>
+        <v>557</v>
       </c>
       <c r="D132" t="s">
         <v>369</v>
@@ -4243,10 +4309,10 @@
         <v>371</v>
       </c>
       <c r="B133" t="s">
-        <v>431</v>
+        <v>445</v>
       </c>
       <c r="C133" t="s">
-        <v>541</v>
+        <v>558</v>
       </c>
       <c r="D133" t="s">
         <v>372</v>
@@ -4262,10 +4328,10 @@
         <v>374</v>
       </c>
       <c r="B134" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="C134" t="s">
-        <v>542</v>
+        <v>559</v>
       </c>
       <c r="D134" t="s">
         <v>375</v>
@@ -4281,10 +4347,10 @@
         <v>377</v>
       </c>
       <c r="B135" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="C135" t="s">
-        <v>543</v>
+        <v>560</v>
       </c>
       <c r="D135" t="s">
         <v>378</v>
@@ -4300,10 +4366,10 @@
         <v>380</v>
       </c>
       <c r="B136" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="C136" t="s">
-        <v>544</v>
+        <v>561</v>
       </c>
       <c r="D136" t="s">
         <v>381</v>
@@ -4319,10 +4385,10 @@
         <v>383</v>
       </c>
       <c r="B137" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="C137" t="s">
-        <v>545</v>
+        <v>562</v>
       </c>
       <c r="D137" t="s">
         <v>384</v>
@@ -4338,10 +4404,10 @@
         <v>386</v>
       </c>
       <c r="B138" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="C138" t="s">
-        <v>546</v>
+        <v>563</v>
       </c>
       <c r="D138" t="s">
         <v>387</v>
@@ -4357,7 +4423,7 @@
         <v>389</v>
       </c>
       <c r="B139" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="C139" t="s">
         <v>391</v>
@@ -4376,10 +4442,10 @@
         <v>392</v>
       </c>
       <c r="B140" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="C140" t="s">
-        <v>547</v>
+        <v>564</v>
       </c>
       <c r="D140" t="s">
         <v>393</v>
@@ -4395,10 +4461,10 @@
         <v>395</v>
       </c>
       <c r="B141" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="C141" t="s">
-        <v>548</v>
+        <v>565</v>
       </c>
       <c r="D141" t="s">
         <v>396</v>
@@ -4408,6 +4474,101 @@
       </c>
       <c r="G141"/>
       <c r="H141"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>398</v>
+      </c>
+      <c r="B142" t="s">
+        <v>450</v>
+      </c>
+      <c r="C142" t="s">
+        <v>566</v>
+      </c>
+      <c r="D142" t="s">
+        <v>399</v>
+      </c>
+      <c r="E142" t="s">
+        <v>400</v>
+      </c>
+      <c r="G142"/>
+      <c r="H142"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>401</v>
+      </c>
+      <c r="B143" t="s">
+        <v>450</v>
+      </c>
+      <c r="C143" t="s">
+        <v>567</v>
+      </c>
+      <c r="D143" t="s">
+        <v>402</v>
+      </c>
+      <c r="E143" t="s">
+        <v>403</v>
+      </c>
+      <c r="G143"/>
+      <c r="H143"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>404</v>
+      </c>
+      <c r="B144" t="s">
+        <v>451</v>
+      </c>
+      <c r="C144" t="s">
+        <v>568</v>
+      </c>
+      <c r="D144" t="s">
+        <v>405</v>
+      </c>
+      <c r="E144" t="s">
+        <v>406</v>
+      </c>
+      <c r="G144"/>
+      <c r="H144"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>407</v>
+      </c>
+      <c r="B145" t="s">
+        <v>452</v>
+      </c>
+      <c r="C145" t="s">
+        <v>569</v>
+      </c>
+      <c r="D145" t="s">
+        <v>408</v>
+      </c>
+      <c r="E145" t="s">
+        <v>409</v>
+      </c>
+      <c r="G145"/>
+      <c r="H145"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>410</v>
+      </c>
+      <c r="B146" t="s">
+        <v>452</v>
+      </c>
+      <c r="C146" t="s">
+        <v>570</v>
+      </c>
+      <c r="D146" t="s">
+        <v>159</v>
+      </c>
+      <c r="E146" t="s">
+        <v>411</v>
+      </c>
+      <c r="G146"/>
+      <c r="H146"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H2"/>

--- a/Original/CN/Game/Obj.xlsx
+++ b/Original/CN/Game/Obj.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="549">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.252</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">momiji</t>
@@ -1211,48 +1211,6 @@
     <t xml:space="preserve">カボチ</t>
   </si>
   <si>
-    <t xml:space="preserve">139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sunflower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ひまわり</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tulip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">チューリップ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">red pepper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">トウガラシ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bone mound</t>
-  </si>
-  <si>
-    <t xml:space="preserve">骨塚</t>
-  </si>
-  <si>
-    <t xml:space="preserve">143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">竜骨</t>
-  </si>
-  <si>
     <t xml:space="preserve">Alpha 11.1</t>
   </si>
   <si>
@@ -1367,15 +1325,6 @@
     <t xml:space="preserve">EA 23.142</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.245</t>
-  </si>
-  <si>
     <t xml:space="preserve">null</t>
   </si>
   <si>
@@ -1568,7 +1517,7 @@
     <t xml:space="preserve">残缺地板</t>
   </si>
   <si>
-    <t xml:space="preserve">树桩</t>
+    <t xml:space="preserve">树墩</t>
   </si>
   <si>
     <t xml:space="preserve">贝壳</t>
@@ -1713,21 +1662,6 @@
   </si>
   <si>
     <t xml:space="preserve">楠瓜</t>
-  </si>
-  <si>
-    <t xml:space="preserve">向日葵</t>
-  </si>
-  <si>
-    <t xml:space="preserve">郁金香</t>
-  </si>
-  <si>
-    <t xml:space="preserve">辣椒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">骸骨堆</t>
-  </si>
-  <si>
-    <t xml:space="preserve">龙骨</t>
   </si>
 </sst>
 </file>
@@ -1839,10 +1773,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C3" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -1858,7 +1792,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -1877,10 +1811,10 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C5" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -1896,10 +1830,10 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C6" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
@@ -1915,10 +1849,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C7" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -1934,10 +1868,10 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C8" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
@@ -1953,10 +1887,10 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C9" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="D9" t="s">
         <v>28</v>
@@ -1972,10 +1906,10 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C10" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -1991,10 +1925,10 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C11" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="D11" t="s">
         <v>32</v>
@@ -2010,10 +1944,10 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C12" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="D12" t="s">
         <v>35</v>
@@ -2029,10 +1963,10 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C13" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
@@ -2048,7 +1982,7 @@
         <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C14" t="s">
         <v>42</v>
@@ -2067,10 +2001,10 @@
         <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C15" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="D15" t="s">
         <v>44</v>
@@ -2086,10 +2020,10 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C16" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="D16" t="s">
         <v>47</v>
@@ -2105,10 +2039,10 @@
         <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="C17" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="D17" t="s">
         <v>50</v>
@@ -2124,10 +2058,10 @@
         <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C18" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="D18" t="s">
         <v>44</v>
@@ -2143,10 +2077,10 @@
         <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C19" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="D19" t="s">
         <v>55</v>
@@ -2162,10 +2096,10 @@
         <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C20" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="D20" t="s">
         <v>58</v>
@@ -2181,10 +2115,10 @@
         <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C21" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="D21" t="s">
         <v>61</v>
@@ -2200,10 +2134,10 @@
         <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C22" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="D22" t="s">
         <v>64</v>
@@ -2219,10 +2153,10 @@
         <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="C23" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="D23" t="s">
         <v>67</v>
@@ -2238,10 +2172,10 @@
         <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C24" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="D24" t="s">
         <v>70</v>
@@ -2257,10 +2191,10 @@
         <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C25" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="D25" t="s">
         <v>73</v>
@@ -2276,10 +2210,10 @@
         <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C26" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="D26" t="s">
         <v>76</v>
@@ -2295,10 +2229,10 @@
         <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="C27" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="D27" t="s">
         <v>79</v>
@@ -2314,10 +2248,10 @@
         <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C28" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="D28" t="s">
         <v>82</v>
@@ -2333,10 +2267,10 @@
         <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C29" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="D29" t="s">
         <v>85</v>
@@ -2352,10 +2286,10 @@
         <v>87</v>
       </c>
       <c r="B30" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C30" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="D30" t="s">
         <v>88</v>
@@ -2371,10 +2305,10 @@
         <v>90</v>
       </c>
       <c r="B31" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C31" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="D31" t="s">
         <v>91</v>
@@ -2390,10 +2324,10 @@
         <v>93</v>
       </c>
       <c r="B32" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C32" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="D32" t="s">
         <v>94</v>
@@ -2409,10 +2343,10 @@
         <v>96</v>
       </c>
       <c r="B33" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C33" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="D33" t="s">
         <v>97</v>
@@ -2428,10 +2362,10 @@
         <v>99</v>
       </c>
       <c r="B34" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C34" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="D34" t="s">
         <v>100</v>
@@ -2447,10 +2381,10 @@
         <v>102</v>
       </c>
       <c r="B35" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C35" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="D35" t="s">
         <v>103</v>
@@ -2466,10 +2400,10 @@
         <v>105</v>
       </c>
       <c r="B36" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C36" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="D36" t="s">
         <v>106</v>
@@ -2485,7 +2419,7 @@
         <v>108</v>
       </c>
       <c r="B37" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="C37" t="s">
         <v>110</v>
@@ -2504,7 +2438,7 @@
         <v>111</v>
       </c>
       <c r="B38" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C38" t="s">
         <v>113</v>
@@ -2523,10 +2457,10 @@
         <v>114</v>
       </c>
       <c r="B39" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C39" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="D39" t="s">
         <v>115</v>
@@ -2542,10 +2476,10 @@
         <v>117</v>
       </c>
       <c r="B40" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C40" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="D40" t="s">
         <v>118</v>
@@ -2561,10 +2495,10 @@
         <v>120</v>
       </c>
       <c r="B41" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C41" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="D41" t="s">
         <v>121</v>
@@ -2580,10 +2514,10 @@
         <v>123</v>
       </c>
       <c r="B42" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C42" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="D42" t="s">
         <v>124</v>
@@ -2599,10 +2533,10 @@
         <v>126</v>
       </c>
       <c r="B43" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="C43" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="D43" t="s">
         <v>127</v>
@@ -2618,10 +2552,10 @@
         <v>129</v>
       </c>
       <c r="B44" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="C44" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="D44" t="s">
         <v>130</v>
@@ -2637,10 +2571,10 @@
         <v>132</v>
       </c>
       <c r="B45" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="C45" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
       <c r="D45" t="s">
         <v>133</v>
@@ -2656,7 +2590,7 @@
         <v>135</v>
       </c>
       <c r="B46" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C46" t="s">
         <v>136</v>
@@ -2675,10 +2609,10 @@
         <v>137</v>
       </c>
       <c r="B47" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C47" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="D47" t="s">
         <v>138</v>
@@ -2694,10 +2628,10 @@
         <v>140</v>
       </c>
       <c r="B48" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C48" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="D48" t="s">
         <v>141</v>
@@ -2713,7 +2647,7 @@
         <v>143</v>
       </c>
       <c r="B49" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C49" t="s">
         <v>110</v>
@@ -2732,10 +2666,10 @@
         <v>144</v>
       </c>
       <c r="B50" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C50" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="D50" t="s">
         <v>44</v>
@@ -2751,10 +2685,10 @@
         <v>146</v>
       </c>
       <c r="B51" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C51" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="D51" t="s">
         <v>147</v>
@@ -2770,10 +2704,10 @@
         <v>149</v>
       </c>
       <c r="B52" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="C52" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="D52" t="s">
         <v>150</v>
@@ -2789,10 +2723,10 @@
         <v>152</v>
       </c>
       <c r="B53" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="C53" t="s">
-        <v>496</v>
+        <v>479</v>
       </c>
       <c r="D53" t="s">
         <v>153</v>
@@ -2808,10 +2742,10 @@
         <v>155</v>
       </c>
       <c r="B54" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C54" t="s">
-        <v>497</v>
+        <v>480</v>
       </c>
       <c r="D54" t="s">
         <v>156</v>
@@ -2827,7 +2761,7 @@
         <v>158</v>
       </c>
       <c r="B55" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C55" t="s">
         <v>160</v>
@@ -2846,10 +2780,10 @@
         <v>161</v>
       </c>
       <c r="B56" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C56" t="s">
-        <v>498</v>
+        <v>481</v>
       </c>
       <c r="D56" t="s">
         <v>162</v>
@@ -2865,10 +2799,10 @@
         <v>164</v>
       </c>
       <c r="B57" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C57" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="D57" t="s">
         <v>165</v>
@@ -2884,10 +2818,10 @@
         <v>167</v>
       </c>
       <c r="B58" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C58" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="D58" t="s">
         <v>168</v>
@@ -2903,10 +2837,10 @@
         <v>170</v>
       </c>
       <c r="B59" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C59" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
       <c r="D59" t="s">
         <v>171</v>
@@ -2922,10 +2856,10 @@
         <v>173</v>
       </c>
       <c r="B60" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C60" t="s">
-        <v>502</v>
+        <v>485</v>
       </c>
       <c r="D60" t="s">
         <v>174</v>
@@ -2941,10 +2875,10 @@
         <v>176</v>
       </c>
       <c r="B61" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C61" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="D61" t="s">
         <v>177</v>
@@ -2960,10 +2894,10 @@
         <v>179</v>
       </c>
       <c r="B62" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C62" t="s">
-        <v>504</v>
+        <v>487</v>
       </c>
       <c r="D62" t="s">
         <v>180</v>
@@ -2979,10 +2913,10 @@
         <v>182</v>
       </c>
       <c r="B63" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="C63" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="D63" t="s">
         <v>183</v>
@@ -2998,10 +2932,10 @@
         <v>185</v>
       </c>
       <c r="B64" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C64" t="s">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="D64" t="s">
         <v>186</v>
@@ -3017,10 +2951,10 @@
         <v>188</v>
       </c>
       <c r="B65" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C65" t="s">
-        <v>507</v>
+        <v>490</v>
       </c>
       <c r="D65" t="s">
         <v>189</v>
@@ -3036,10 +2970,10 @@
         <v>191</v>
       </c>
       <c r="B66" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C66" t="s">
-        <v>508</v>
+        <v>491</v>
       </c>
       <c r="D66" t="s">
         <v>192</v>
@@ -3055,10 +2989,10 @@
         <v>194</v>
       </c>
       <c r="B67" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C67" t="s">
-        <v>509</v>
+        <v>492</v>
       </c>
       <c r="D67" t="s">
         <v>195</v>
@@ -3074,10 +3008,10 @@
         <v>197</v>
       </c>
       <c r="B68" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C68" t="s">
-        <v>510</v>
+        <v>493</v>
       </c>
       <c r="D68" t="s">
         <v>198</v>
@@ -3093,10 +3027,10 @@
         <v>200</v>
       </c>
       <c r="B69" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C69" t="s">
-        <v>511</v>
+        <v>494</v>
       </c>
       <c r="D69" t="s">
         <v>201</v>
@@ -3112,10 +3046,10 @@
         <v>203</v>
       </c>
       <c r="B70" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C70" t="s">
-        <v>512</v>
+        <v>495</v>
       </c>
       <c r="D70" t="s">
         <v>204</v>
@@ -3131,10 +3065,10 @@
         <v>206</v>
       </c>
       <c r="B71" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="C71" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="D71" t="s">
         <v>207</v>
@@ -3150,10 +3084,10 @@
         <v>209</v>
       </c>
       <c r="B72" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C72" t="s">
-        <v>514</v>
+        <v>497</v>
       </c>
       <c r="D72" t="s">
         <v>210</v>
@@ -3169,10 +3103,10 @@
         <v>212</v>
       </c>
       <c r="B73" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C73" t="s">
-        <v>515</v>
+        <v>498</v>
       </c>
       <c r="D73" t="s">
         <v>213</v>
@@ -3188,10 +3122,10 @@
         <v>215</v>
       </c>
       <c r="B74" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C74" t="s">
-        <v>516</v>
+        <v>499</v>
       </c>
       <c r="D74" t="s">
         <v>216</v>
@@ -3207,10 +3141,10 @@
         <v>218</v>
       </c>
       <c r="B75" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C75" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="D75" t="s">
         <v>219</v>
@@ -3226,7 +3160,7 @@
         <v>221</v>
       </c>
       <c r="B76" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C76" t="s">
         <v>223</v>
@@ -3245,10 +3179,10 @@
         <v>224</v>
       </c>
       <c r="B77" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C77" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
       <c r="D77" t="s">
         <v>225</v>
@@ -3264,7 +3198,7 @@
         <v>227</v>
       </c>
       <c r="B78" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C78" t="s">
         <v>229</v>
@@ -3283,10 +3217,10 @@
         <v>230</v>
       </c>
       <c r="B79" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C79" t="s">
-        <v>519</v>
+        <v>502</v>
       </c>
       <c r="D79" t="s">
         <v>231</v>
@@ -3302,10 +3236,10 @@
         <v>233</v>
       </c>
       <c r="B80" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C80" t="s">
-        <v>520</v>
+        <v>503</v>
       </c>
       <c r="D80" t="s">
         <v>234</v>
@@ -3321,7 +3255,7 @@
         <v>236</v>
       </c>
       <c r="B81" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="C81" t="s">
         <v>238</v>
@@ -3340,10 +3274,10 @@
         <v>239</v>
       </c>
       <c r="B82" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C82" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
       <c r="D82" t="s">
         <v>240</v>
@@ -3359,10 +3293,10 @@
         <v>242</v>
       </c>
       <c r="B83" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C83" t="s">
-        <v>522</v>
+        <v>505</v>
       </c>
       <c r="D83" t="s">
         <v>243</v>
@@ -3378,10 +3312,10 @@
         <v>244</v>
       </c>
       <c r="B84" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="C84" t="s">
-        <v>523</v>
+        <v>506</v>
       </c>
       <c r="D84" t="s">
         <v>245</v>
@@ -3397,7 +3331,7 @@
         <v>247</v>
       </c>
       <c r="B85" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="C85" t="s">
         <v>249</v>
@@ -3416,7 +3350,7 @@
         <v>250</v>
       </c>
       <c r="B86" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="C86" t="s">
         <v>110</v>
@@ -3435,10 +3369,10 @@
         <v>251</v>
       </c>
       <c r="B87" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="C87" t="s">
-        <v>524</v>
+        <v>507</v>
       </c>
       <c r="D87" t="s">
         <v>252</v>
@@ -3454,7 +3388,7 @@
         <v>254</v>
       </c>
       <c r="B88" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="C88" t="s">
         <v>110</v>
@@ -3473,7 +3407,7 @@
         <v>255</v>
       </c>
       <c r="B89" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="C89" t="s">
         <v>110</v>
@@ -3492,7 +3426,7 @@
         <v>256</v>
       </c>
       <c r="B90" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="C90" t="s">
         <v>110</v>
@@ -3511,10 +3445,10 @@
         <v>257</v>
       </c>
       <c r="B91" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="C91" t="s">
-        <v>525</v>
+        <v>508</v>
       </c>
       <c r="D91" t="s">
         <v>258</v>
@@ -3530,10 +3464,10 @@
         <v>260</v>
       </c>
       <c r="B92" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="C92" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="D92" t="s">
         <v>261</v>
@@ -3549,10 +3483,10 @@
         <v>263</v>
       </c>
       <c r="B93" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="C93" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
       <c r="D93" t="s">
         <v>264</v>
@@ -3568,10 +3502,10 @@
         <v>266</v>
       </c>
       <c r="B94" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="C94" t="s">
-        <v>528</v>
+        <v>511</v>
       </c>
       <c r="D94" t="s">
         <v>267</v>
@@ -3587,10 +3521,10 @@
         <v>269</v>
       </c>
       <c r="B95" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="C95" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
       <c r="D95" t="s">
         <v>270</v>
@@ -3606,10 +3540,10 @@
         <v>272</v>
       </c>
       <c r="B96" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="C96" t="s">
-        <v>530</v>
+        <v>513</v>
       </c>
       <c r="D96" t="s">
         <v>273</v>
@@ -3625,7 +3559,7 @@
         <v>275</v>
       </c>
       <c r="B97" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="C97" t="s">
         <v>277</v>
@@ -3644,10 +3578,10 @@
         <v>278</v>
       </c>
       <c r="B98" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="C98" t="s">
-        <v>531</v>
+        <v>514</v>
       </c>
       <c r="D98" t="s">
         <v>279</v>
@@ -3663,10 +3597,10 @@
         <v>281</v>
       </c>
       <c r="B99" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="C99" t="s">
-        <v>531</v>
+        <v>514</v>
       </c>
       <c r="D99" t="s">
         <v>279</v>
@@ -3682,10 +3616,10 @@
         <v>282</v>
       </c>
       <c r="B100" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="C100" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="D100" t="s">
         <v>100</v>
@@ -3701,10 +3635,10 @@
         <v>283</v>
       </c>
       <c r="B101" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="C101" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="D101" t="s">
         <v>100</v>
@@ -3720,10 +3654,10 @@
         <v>284</v>
       </c>
       <c r="B102" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="C102" t="s">
-        <v>532</v>
+        <v>515</v>
       </c>
       <c r="D102" t="s">
         <v>285</v>
@@ -3739,10 +3673,10 @@
         <v>287</v>
       </c>
       <c r="B103" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="C103" t="s">
-        <v>533</v>
+        <v>516</v>
       </c>
       <c r="D103" t="s">
         <v>288</v>
@@ -3758,10 +3692,10 @@
         <v>290</v>
       </c>
       <c r="B104" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="C104" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="D104" t="s">
         <v>79</v>
@@ -3777,10 +3711,10 @@
         <v>291</v>
       </c>
       <c r="B105" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="C105" t="s">
-        <v>534</v>
+        <v>517</v>
       </c>
       <c r="D105" t="s">
         <v>292</v>
@@ -3796,7 +3730,7 @@
         <v>294</v>
       </c>
       <c r="B106" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="C106" t="s">
         <v>296</v>
@@ -3815,10 +3749,10 @@
         <v>297</v>
       </c>
       <c r="B107" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="C107" t="s">
-        <v>535</v>
+        <v>518</v>
       </c>
       <c r="D107" t="s">
         <v>298</v>
@@ -3834,7 +3768,7 @@
         <v>300</v>
       </c>
       <c r="B108" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="C108" t="s">
         <v>302</v>
@@ -3853,10 +3787,10 @@
         <v>303</v>
       </c>
       <c r="B109" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="C109" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
       <c r="D109" t="s">
         <v>79</v>
@@ -3872,10 +3806,10 @@
         <v>304</v>
       </c>
       <c r="B110" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="C110" t="s">
-        <v>536</v>
+        <v>519</v>
       </c>
       <c r="D110" t="s">
         <v>305</v>
@@ -3891,10 +3825,10 @@
         <v>307</v>
       </c>
       <c r="B111" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="C111" t="s">
-        <v>537</v>
+        <v>520</v>
       </c>
       <c r="D111" t="s">
         <v>308</v>
@@ -3910,10 +3844,10 @@
         <v>310</v>
       </c>
       <c r="B112" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="C112" t="s">
-        <v>538</v>
+        <v>521</v>
       </c>
       <c r="D112" t="s">
         <v>311</v>
@@ -3929,10 +3863,10 @@
         <v>313</v>
       </c>
       <c r="B113" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="C113" t="s">
-        <v>539</v>
+        <v>522</v>
       </c>
       <c r="D113" t="s">
         <v>314</v>
@@ -3948,10 +3882,10 @@
         <v>316</v>
       </c>
       <c r="B114" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="C114" t="s">
-        <v>540</v>
+        <v>523</v>
       </c>
       <c r="D114" t="s">
         <v>317</v>
@@ -3967,10 +3901,10 @@
         <v>319</v>
       </c>
       <c r="B115" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="C115" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
       <c r="D115" t="s">
         <v>320</v>
@@ -3986,10 +3920,10 @@
         <v>322</v>
       </c>
       <c r="B116" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="C116" t="s">
-        <v>542</v>
+        <v>525</v>
       </c>
       <c r="D116" t="s">
         <v>323</v>
@@ -4005,10 +3939,10 @@
         <v>325</v>
       </c>
       <c r="B117" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="C117" t="s">
-        <v>543</v>
+        <v>526</v>
       </c>
       <c r="D117" t="s">
         <v>326</v>
@@ -4024,10 +3958,10 @@
         <v>328</v>
       </c>
       <c r="B118" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="C118" t="s">
-        <v>544</v>
+        <v>527</v>
       </c>
       <c r="D118" t="s">
         <v>329</v>
@@ -4043,10 +3977,10 @@
         <v>331</v>
       </c>
       <c r="B119" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="C119" t="s">
-        <v>545</v>
+        <v>528</v>
       </c>
       <c r="D119" t="s">
         <v>332</v>
@@ -4062,10 +3996,10 @@
         <v>334</v>
       </c>
       <c r="B120" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C120" t="s">
-        <v>546</v>
+        <v>529</v>
       </c>
       <c r="D120" t="s">
         <v>335</v>
@@ -4081,10 +4015,10 @@
         <v>337</v>
       </c>
       <c r="B121" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="C121" t="s">
-        <v>547</v>
+        <v>530</v>
       </c>
       <c r="D121" t="s">
         <v>338</v>
@@ -4100,10 +4034,10 @@
         <v>340</v>
       </c>
       <c r="B122" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="C122" t="s">
-        <v>548</v>
+        <v>531</v>
       </c>
       <c r="D122" t="s">
         <v>341</v>
@@ -4119,10 +4053,10 @@
         <v>343</v>
       </c>
       <c r="B123" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="C123" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D123" t="s">
         <v>22</v>
@@ -4138,10 +4072,10 @@
         <v>344</v>
       </c>
       <c r="B124" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="C124" t="s">
-        <v>549</v>
+        <v>532</v>
       </c>
       <c r="D124" t="s">
         <v>345</v>
@@ -4157,10 +4091,10 @@
         <v>347</v>
       </c>
       <c r="B125" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="C125" t="s">
-        <v>550</v>
+        <v>533</v>
       </c>
       <c r="D125" t="s">
         <v>348</v>
@@ -4176,10 +4110,10 @@
         <v>350</v>
       </c>
       <c r="B126" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="C126" t="s">
-        <v>551</v>
+        <v>534</v>
       </c>
       <c r="D126" t="s">
         <v>351</v>
@@ -4195,10 +4129,10 @@
         <v>353</v>
       </c>
       <c r="B127" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="C127" t="s">
-        <v>552</v>
+        <v>535</v>
       </c>
       <c r="D127" t="s">
         <v>354</v>
@@ -4214,10 +4148,10 @@
         <v>356</v>
       </c>
       <c r="B128" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="C128" t="s">
-        <v>553</v>
+        <v>536</v>
       </c>
       <c r="D128" t="s">
         <v>357</v>
@@ -4233,10 +4167,10 @@
         <v>359</v>
       </c>
       <c r="B129" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="C129" t="s">
-        <v>554</v>
+        <v>537</v>
       </c>
       <c r="D129" t="s">
         <v>360</v>
@@ -4252,10 +4186,10 @@
         <v>362</v>
       </c>
       <c r="B130" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="C130" t="s">
-        <v>555</v>
+        <v>538</v>
       </c>
       <c r="D130" t="s">
         <v>363</v>
@@ -4271,10 +4205,10 @@
         <v>365</v>
       </c>
       <c r="B131" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="C131" t="s">
-        <v>556</v>
+        <v>539</v>
       </c>
       <c r="D131" t="s">
         <v>366</v>
@@ -4290,10 +4224,10 @@
         <v>368</v>
       </c>
       <c r="B132" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="C132" t="s">
-        <v>557</v>
+        <v>540</v>
       </c>
       <c r="D132" t="s">
         <v>369</v>
@@ -4309,10 +4243,10 @@
         <v>371</v>
       </c>
       <c r="B133" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="C133" t="s">
-        <v>558</v>
+        <v>541</v>
       </c>
       <c r="D133" t="s">
         <v>372</v>
@@ -4328,10 +4262,10 @@
         <v>374</v>
       </c>
       <c r="B134" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="C134" t="s">
-        <v>559</v>
+        <v>542</v>
       </c>
       <c r="D134" t="s">
         <v>375</v>
@@ -4347,10 +4281,10 @@
         <v>377</v>
       </c>
       <c r="B135" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="C135" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="D135" t="s">
         <v>378</v>
@@ -4366,10 +4300,10 @@
         <v>380</v>
       </c>
       <c r="B136" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="C136" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="D136" t="s">
         <v>381</v>
@@ -4385,10 +4319,10 @@
         <v>383</v>
       </c>
       <c r="B137" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="C137" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="D137" t="s">
         <v>384</v>
@@ -4404,10 +4338,10 @@
         <v>386</v>
       </c>
       <c r="B138" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="C138" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="D138" t="s">
         <v>387</v>
@@ -4423,7 +4357,7 @@
         <v>389</v>
       </c>
       <c r="B139" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="C139" t="s">
         <v>391</v>
@@ -4442,10 +4376,10 @@
         <v>392</v>
       </c>
       <c r="B140" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="C140" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
       <c r="D140" t="s">
         <v>393</v>
@@ -4461,10 +4395,10 @@
         <v>395</v>
       </c>
       <c r="B141" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="C141" t="s">
-        <v>565</v>
+        <v>548</v>
       </c>
       <c r="D141" t="s">
         <v>396</v>
@@ -4474,101 +4408,6 @@
       </c>
       <c r="G141"/>
       <c r="H141"/>
-    </row>
-    <row r="142">
-      <c r="A142" t="s">
-        <v>398</v>
-      </c>
-      <c r="B142" t="s">
-        <v>450</v>
-      </c>
-      <c r="C142" t="s">
-        <v>566</v>
-      </c>
-      <c r="D142" t="s">
-        <v>399</v>
-      </c>
-      <c r="E142" t="s">
-        <v>400</v>
-      </c>
-      <c r="G142"/>
-      <c r="H142"/>
-    </row>
-    <row r="143">
-      <c r="A143" t="s">
-        <v>401</v>
-      </c>
-      <c r="B143" t="s">
-        <v>450</v>
-      </c>
-      <c r="C143" t="s">
-        <v>567</v>
-      </c>
-      <c r="D143" t="s">
-        <v>402</v>
-      </c>
-      <c r="E143" t="s">
-        <v>403</v>
-      </c>
-      <c r="G143"/>
-      <c r="H143"/>
-    </row>
-    <row r="144">
-      <c r="A144" t="s">
-        <v>404</v>
-      </c>
-      <c r="B144" t="s">
-        <v>451</v>
-      </c>
-      <c r="C144" t="s">
-        <v>568</v>
-      </c>
-      <c r="D144" t="s">
-        <v>405</v>
-      </c>
-      <c r="E144" t="s">
-        <v>406</v>
-      </c>
-      <c r="G144"/>
-      <c r="H144"/>
-    </row>
-    <row r="145">
-      <c r="A145" t="s">
-        <v>407</v>
-      </c>
-      <c r="B145" t="s">
-        <v>452</v>
-      </c>
-      <c r="C145" t="s">
-        <v>569</v>
-      </c>
-      <c r="D145" t="s">
-        <v>408</v>
-      </c>
-      <c r="E145" t="s">
-        <v>409</v>
-      </c>
-      <c r="G145"/>
-      <c r="H145"/>
-    </row>
-    <row r="146">
-      <c r="A146" t="s">
-        <v>410</v>
-      </c>
-      <c r="B146" t="s">
-        <v>452</v>
-      </c>
-      <c r="C146" t="s">
-        <v>570</v>
-      </c>
-      <c r="D146" t="s">
-        <v>159</v>
-      </c>
-      <c r="E146" t="s">
-        <v>411</v>
-      </c>
-      <c r="G146"/>
-      <c r="H146"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H2"/>
